--- a/Data/Completing college/EducationReport(12).xlsx
+++ b/Data/Completing college/EducationReport(12).xlsx
@@ -127,7 +127,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="2" borderId="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -152,9 +152,6 @@
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="3" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -326,545 +323,5445 @@
     <row r="4" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">04000</t>
+          <t xml:space="preserve">13000</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Arizona</t>
+          <t xml:space="preserve">Georgia</t>
         </is>
       </c>
       <c s="6" t="str" r="C4"/>
       <c s="7" r="D4">
-        <v>0.419195686097646</v>
+        <v>0.0921114181534164</v>
       </c>
       <c s="7" r="E4">
-        <v>0.276461920685924</v>
+        <v>0.14592867087902</v>
       </c>
       <c s="7" r="F4">
-        <v>0.213403836384598</v>
+        <v>0.19315855665081</v>
       </c>
       <c s="7" r="G4">
-        <v>0.190267810418576</v>
+        <v>0.242997783440498</v>
       </c>
       <c s="3" t="str" r="H4"/>
       <c s="7" r="I4">
-        <v>0.145576518299596</v>
+        <v>0.277640172827972</v>
       </c>
       <c s="7" r="J4">
-        <v>0.116957258201</v>
+        <v>0.330027208015539</v>
       </c>
     </row>
     <row r="5" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">04001</t>
+          <t xml:space="preserve">13001</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Apache, AZ        </t>
+          <t xml:space="preserve">Appling, GA        </t>
         </is>
       </c>
       <c s="8" r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="7" r="D5">
-        <v>0.66008316008316</v>
+        <v>0.0288643533123028</v>
       </c>
       <c s="7" r="E5">
-        <v>0.50702581369248</v>
+        <v>0.0648700214643453</v>
       </c>
       <c s="7" r="F5">
-        <v>0.453438975050573</v>
+        <v>0.0821065726726104</v>
       </c>
       <c s="7" r="G5">
-        <v>0.36353093850954</v>
+        <v>0.084332969829153</v>
       </c>
       <c s="3" t="str" r="H5"/>
       <c s="7" r="I5">
-        <v>0.256258424802619</v>
+        <v>0.113386083693613</v>
       </c>
       <c s="7" r="J5">
-        <v>0.178202162315283</v>
+        <v>0.097092882014738</v>
       </c>
     </row>
     <row r="6" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">04003</t>
+          <t xml:space="preserve">13003</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Cochise, AZ        </t>
+          <t xml:space="preserve">Atkinson, GA        </t>
         </is>
       </c>
       <c s="8" r="C6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c s="7" r="D6">
-        <v>0.441404559826926</v>
+        <v>0.0309968298696724</v>
       </c>
       <c s="7" r="E6">
-        <v>0.311980206254158</v>
+        <v>0.0499248120300752</v>
       </c>
       <c s="7" r="F6">
-        <v>0.242952800914584</v>
+        <v>0.0636042402826855</v>
       </c>
       <c s="7" r="G6">
-        <v>0.205387072082772</v>
+        <v>0.0690650677326227</v>
       </c>
       <c s="3" t="str" r="H6"/>
       <c s="7" r="I6">
-        <v>0.146996227689882</v>
+        <v>0.0869819030939872</v>
       </c>
       <c s="7" r="J6">
-        <v>0.113192657402642</v>
+        <v>0.108811241929358</v>
       </c>
     </row>
     <row r="7" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">04005</t>
+          <t xml:space="preserve">13005</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Coconino, AZ        </t>
+          <t xml:space="preserve">Bacon, GA        </t>
         </is>
       </c>
       <c s="8" r="C7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c s="7" r="D7">
-        <v>0.417482932620956</v>
+        <v>0.0383446340893149</v>
       </c>
       <c s="7" r="E7">
-        <v>0.256076666182663</v>
+        <v>0.0686463555726957</v>
       </c>
       <c s="7" r="F7">
-        <v>0.209596259756726</v>
+        <v>0.0656195462478185</v>
       </c>
       <c s="7" r="G7">
-        <v>0.162240814841761</v>
+        <v>0.0662068965517241</v>
       </c>
       <c s="3" t="str" r="H7"/>
       <c s="7" r="I7">
-        <v>0.129038038191778</v>
+        <v>0.0893395450808441</v>
       </c>
       <c s="7" r="J7">
-        <v>0.0903269217383234</v>
+        <v>0.110547945205479</v>
       </c>
     </row>
     <row r="8" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">04007</t>
+          <t xml:space="preserve">13007</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Gila, AZ        </t>
+          <t xml:space="preserve">Baker, GA        </t>
         </is>
       </c>
       <c s="8" r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="7" r="D8">
-        <v>0.537533777104066</v>
+        <v>0.0280274986779482</v>
       </c>
       <c s="7" r="E8">
-        <v>0.383305647840532</v>
+        <v>0.0490053372149442</v>
       </c>
       <c s="7" r="F8">
-        <v>0.318899096162394</v>
+        <v>0.0941828254847645</v>
       </c>
       <c s="7" r="G8">
-        <v>0.217752489331437</v>
+        <v>0.106960283130161</v>
       </c>
       <c s="3" t="str" r="H8"/>
       <c s="7" r="I8">
-        <v>0.149589469568617</v>
+        <v>0.0699643493761141</v>
       </c>
       <c s="7" r="J8">
-        <v>0.130586378906648</v>
+        <v>0.181860682561945</v>
       </c>
     </row>
     <row r="9" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">04009</t>
+          <t xml:space="preserve">13009</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Graham, AZ        </t>
+          <t xml:space="preserve">Baldwin, GA        </t>
         </is>
       </c>
       <c s="8" r="C9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c s="7" r="D9">
-        <v>0.527388369678089</v>
+        <v>0.0745207947550173</v>
       </c>
       <c s="7" r="E9">
-        <v>0.394517990495587</v>
+        <v>0.15378221113882</v>
       </c>
       <c s="7" r="F9">
-        <v>0.324079662039831</v>
+        <v>0.133410074226968</v>
       </c>
       <c s="7" r="G9">
-        <v>0.244223396539219</v>
+        <v>0.161574969238882</v>
       </c>
       <c s="3" t="str" r="H9"/>
       <c s="7" r="I9">
-        <v>0.156395112934493</v>
+        <v>0.192528939705987</v>
       </c>
       <c s="7" r="J9">
-        <v>0.165516094152874</v>
+        <v>0.252839254513687</v>
       </c>
     </row>
     <row r="10" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">04011</t>
+          <t xml:space="preserve">13011</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Greenlee, AZ        </t>
+          <t xml:space="preserve">Banks, GA        </t>
         </is>
       </c>
       <c s="8" r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="7" r="D10">
-        <v>0.525967894239849</v>
+        <v>0.0319204604918891</v>
       </c>
       <c s="7" r="E10">
-        <v>0.316931488125748</v>
+        <v>0.0498733684005455</v>
       </c>
       <c s="7" r="F10">
-        <v>0.258064516129032</v>
+        <v>0.0637936360827927</v>
       </c>
       <c s="7" r="G10">
-        <v>0.175148838102554</v>
+        <v>0.0861610466971599</v>
       </c>
       <c s="3" t="str" r="H10"/>
       <c s="7" r="I10">
-        <v>0.143818963904993</v>
+        <v>0.119448571900281</v>
       </c>
       <c s="7" r="J10">
-        <v>0.123221103783409</v>
+        <v>0.164874551971326</v>
       </c>
     </row>
     <row r="11" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">04012</t>
+          <t xml:space="preserve">13013</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">La Paz, AZ        </t>
+          <t xml:space="preserve">Barrow, GA        </t>
         </is>
       </c>
       <c s="8" r="C11">
-        <v>6</v>
-      </c>
-      <c s="9" t="str" r="D11"/>
-      <c s="9" t="str" r="E11"/>
+        <v>1</v>
+      </c>
+      <c s="7" r="D11">
+        <v>0.0504219634654417</v>
+      </c>
+      <c s="7" r="E11">
+        <v>0.0749450728293596</v>
+      </c>
       <c s="7" r="F11">
-        <v>0.37037037037037</v>
+        <v>0.0922866520787746</v>
       </c>
       <c s="7" r="G11">
-        <v>0.30724859267496</v>
+        <v>0.109015247126241</v>
       </c>
       <c s="3" t="str" r="H11"/>
       <c s="7" r="I11">
-        <v>0.259655976308991</v>
+        <v>0.166117860792551</v>
       </c>
       <c s="7" r="J11">
-        <v>0.160066757699894</v>
+        <v>0.208532555520685</v>
       </c>
     </row>
     <row r="12" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">04013</t>
+          <t xml:space="preserve">13015</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Maricopa, AZ        </t>
+          <t xml:space="preserve">Bartow, GA        </t>
         </is>
       </c>
       <c s="8" r="C12">
         <v>1</v>
       </c>
       <c s="7" r="D12">
-        <v>0.399205980983479</v>
+        <v>0.0468392120934494</v>
       </c>
       <c s="7" r="E12">
-        <v>0.249784316396495</v>
+        <v>0.0630097004034681</v>
       </c>
       <c s="7" r="F12">
-        <v>0.185039422780879</v>
+        <v>0.0901743815537918</v>
       </c>
       <c s="7" r="G12">
-        <v>0.174986317525402</v>
+        <v>0.141267527561642</v>
       </c>
       <c s="3" t="str" r="H12"/>
       <c s="7" r="I12">
-        <v>0.138473230377115</v>
+        <v>0.16213216592419</v>
       </c>
       <c s="7" r="J12">
-        <v>0.111574958134249</v>
+        <v>0.19783194070455</v>
       </c>
     </row>
     <row r="13" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">04015</t>
+          <t xml:space="preserve">13017</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">Mohave, AZ        </t>
+          <t xml:space="preserve">Ben Hill, GA        </t>
         </is>
       </c>
       <c s="8" r="C13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c s="7" r="D13">
-        <v>0.422848468848997</v>
+        <v>0.0521068722584076</v>
       </c>
       <c s="7" r="E13">
-        <v>0.309139043626937</v>
+        <v>0.0805469501121675</v>
       </c>
       <c s="7" r="F13">
-        <v>0.271869652780933</v>
+        <v>0.0756371049949032</v>
       </c>
       <c s="7" r="G13">
-        <v>0.224935297721931</v>
+        <v>0.0951774340309372</v>
       </c>
       <c s="3" t="str" r="H13"/>
       <c s="7" r="I13">
-        <v>0.163131410080623</v>
+        <v>0.103614028841018</v>
       </c>
       <c s="7" r="J13">
-        <v>0.125512040238532</v>
+        <v>0.109365558912387</v>
       </c>
     </row>
     <row r="14" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">04017</t>
+          <t xml:space="preserve">13019</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">Navajo, AZ        </t>
+          <t xml:space="preserve">Berrien, GA        </t>
         </is>
       </c>
       <c s="8" r="C14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="7" r="D14">
-        <v>0.585249801744647</v>
+        <v>0.0256121134020619</v>
       </c>
       <c s="7" r="E14">
-        <v>0.402666495737453</v>
+        <v>0.0586950937580272</v>
       </c>
       <c s="7" r="F14">
-        <v>0.35410125588697</v>
+        <v>0.0753814620815304</v>
       </c>
       <c s="7" r="G14">
-        <v>0.288241261643457</v>
+        <v>0.0943450387522725</v>
       </c>
       <c s="3" t="str" r="H14"/>
       <c s="7" r="I14">
-        <v>0.197979581199988</v>
+        <v>0.117873409769122</v>
       </c>
       <c s="7" r="J14">
-        <v>0.154519619944312</v>
+        <v>0.130320420851267</v>
       </c>
     </row>
     <row r="15" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">04019</t>
+          <t xml:space="preserve">13021</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">Pima, AZ        </t>
+          <t xml:space="preserve">Bibb, GA        </t>
         </is>
       </c>
       <c s="8" r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D15">
-        <v>0.369064713379907</v>
+        <v>0.0921104381341933</v>
       </c>
       <c s="7" r="E15">
-        <v>0.253911167635269</v>
+        <v>0.130222833181235</v>
       </c>
       <c s="7" r="F15">
-        <v>0.194931042940155</v>
+        <v>0.170238688010509</v>
       </c>
       <c s="7" r="G15">
-        <v>0.165659099231051</v>
+        <v>0.213404061028288</v>
       </c>
       <c s="3" t="str" r="H15"/>
       <c s="7" r="I15">
-        <v>0.129911314245602</v>
+        <v>0.227960039839435</v>
       </c>
       <c s="7" r="J15">
-        <v>0.106491173879718</v>
+        <v>0.255311469652925</v>
       </c>
     </row>
     <row r="16" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">04021</t>
+          <t xml:space="preserve">13023</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">Pinal, AZ        </t>
+          <t xml:space="preserve">Bleckley, GA        </t>
         </is>
       </c>
       <c s="8" r="C16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="7" r="D16">
-        <v>0.578358662613982</v>
+        <v>0.0402671380868199</v>
       </c>
       <c s="7" r="E16">
-        <v>0.449895991679334</v>
+        <v>0.0896830748482805</v>
       </c>
       <c s="7" r="F16">
-        <v>0.345268470880216</v>
+        <v>0.102973395931142</v>
       </c>
       <c s="7" r="G16">
-        <v>0.272984500680089</v>
+        <v>0.125068794716566</v>
       </c>
       <c s="3" t="str" r="H16"/>
       <c s="7" r="I16">
-        <v>0.157634171614665</v>
+        <v>0.134781504065041</v>
       </c>
       <c s="7" r="J16">
-        <v>0.124262838889344</v>
+        <v>0.159608323133415</v>
       </c>
     </row>
     <row r="17" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">04023</t>
+          <t xml:space="preserve">13025</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">Santa Cruz, AZ        </t>
+          <t xml:space="preserve">Brantley, GA        </t>
         </is>
       </c>
       <c s="8" r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="7" r="D17">
-        <v>0.564986356455551</v>
+        <v>0.0233411137045682</v>
       </c>
       <c s="7" r="E17">
-        <v>0.459633027522936</v>
+        <v>0.0478205670757512</v>
       </c>
       <c s="7" r="F17">
-        <v>0.427867867867868</v>
+        <v>0.0581025873808443</v>
       </c>
       <c s="7" r="G17">
-        <v>0.393406103809312</v>
+        <v>0.0624865330747684</v>
       </c>
       <c s="3" t="str" r="H17"/>
       <c s="7" r="I17">
-        <v>0.278030993618961</v>
+        <v>0.0606948514022604</v>
       </c>
       <c s="7" r="J17">
-        <v>0.2225552518033</v>
+        <v>0.0649381923262161</v>
       </c>
     </row>
     <row r="18" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">04025</t>
+          <t xml:space="preserve">13027</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">Yavapai, AZ        </t>
+          <t xml:space="preserve">Brooks, GA        </t>
         </is>
       </c>
       <c s="8" r="C18">
         <v>3</v>
       </c>
       <c s="7" r="D18">
-        <v>0.450459518599562</v>
+        <v>0.0506574394463668</v>
       </c>
       <c s="7" r="E18">
-        <v>0.261442501976632</v>
+        <v>0.0754404635213433</v>
       </c>
       <c s="7" r="F18">
-        <v>0.211185589689174</v>
+        <v>0.0911032788636121</v>
       </c>
       <c s="7" r="G18">
-        <v>0.152849288405713</v>
+        <v>0.113055954088953</v>
       </c>
       <c s="3" t="str" r="H18"/>
       <c s="7" r="I18">
-        <v>0.0981334425411289</v>
+        <v>0.126403443113772</v>
       </c>
       <c s="7" r="J18">
-        <v>0.0844875729175306</v>
-      </c>
-    </row>
-    <row r="19" ht="20.6" customHeight="0">
+        <v>0.167931521355454</v>
+      </c>
+    </row>
+    <row r="19" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">04027</t>
+          <t xml:space="preserve">13029</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">Yuma, AZ        </t>
+          <t xml:space="preserve">Bryan, GA        </t>
         </is>
       </c>
       <c s="8" r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="7" r="D19">
-        <v>0.496582991632497</v>
+        <v>0.0424128180961357</v>
       </c>
       <c s="7" r="E19">
-        <v>0.384049899754957</v>
+        <v>0.0437108078199926</v>
       </c>
       <c s="7" r="F19">
-        <v>0.350834602691038</v>
+        <v>0.117816091954023</v>
       </c>
       <c s="7" r="G19">
-        <v>0.341902129402129</v>
+        <v>0.193330077443661</v>
       </c>
       <c s="3" t="str" r="H19"/>
       <c s="7" r="I19">
-        <v>0.285072979886643</v>
+        <v>0.293855789637145</v>
       </c>
       <c s="7" r="J19">
-        <v>0.250899078879187</v>
-      </c>
-    </row>
-    <row r="20" ht="0.05" customHeight="1"/>
-    <row r="21" ht="5.95" customHeight="1"/>
-    <row r="22" ht="222.75" customHeight="1">
-      <c s="10" t="inlineStr" r="A22">
+        <v>0.335037328527822</v>
+      </c>
+    </row>
+    <row r="20" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A20">
+        <is>
+          <t xml:space="preserve">13031</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">Bulloch, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C20">
+        <v>4</v>
+      </c>
+      <c s="7" r="D20">
+        <v>0.108136373143694</v>
+      </c>
+      <c s="7" r="E20">
+        <v>0.156462203266177</v>
+      </c>
+      <c s="7" r="F20">
+        <v>0.199005866284537</v>
+      </c>
+      <c s="7" r="G20">
+        <v>0.25410577592206</v>
+      </c>
+      <c s="3" t="str" r="H20"/>
+      <c s="7" r="I20">
+        <v>0.269344050207823</v>
+      </c>
+      <c s="7" r="J20">
+        <v>0.282731768444136</v>
+      </c>
+    </row>
+    <row r="21" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A21">
+        <is>
+          <t xml:space="preserve">13033</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">Burke, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C21">
+        <v>2</v>
+      </c>
+      <c s="7" r="D21">
+        <v>0.0493319630010277</v>
+      </c>
+      <c s="7" r="E21">
+        <v>0.0785006378176823</v>
+      </c>
+      <c s="7" r="F21">
+        <v>0.0958255872908569</v>
+      </c>
+      <c s="7" r="G21">
+        <v>0.0952916479232269</v>
+      </c>
+      <c s="3" t="str" r="H21"/>
+      <c s="7" r="I21">
+        <v>0.0940744842863076</v>
+      </c>
+      <c s="7" r="J21">
+        <v>0.151497547121095</v>
+      </c>
+    </row>
+    <row r="22" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A22">
+        <is>
+          <t xml:space="preserve">13035</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">Butts, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C22">
+        <v>1</v>
+      </c>
+      <c s="7" r="D22">
+        <v>0.0552282768777614</v>
+      </c>
+      <c s="7" r="E22">
+        <v>0.0639611242448122</v>
+      </c>
+      <c s="7" r="F22">
+        <v>0.0721173574066475</v>
+      </c>
+      <c s="7" r="G22">
+        <v>0.0859440827269246</v>
+      </c>
+      <c s="3" t="str" r="H22"/>
+      <c s="7" r="I22">
+        <v>0.0899862138112545</v>
+      </c>
+      <c s="7" r="J22">
+        <v>0.121854229392717</v>
+      </c>
+    </row>
+    <row r="23" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A23">
+        <is>
+          <t xml:space="preserve">13037</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">Calhoun, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C23">
+        <v>8</v>
+      </c>
+      <c s="7" r="D23">
+        <v>0.054354539839407</v>
+      </c>
+      <c s="7" r="E23">
+        <v>0.0717005076142132</v>
+      </c>
+      <c s="7" r="F23">
+        <v>0.101051960471788</v>
+      </c>
+      <c s="7" r="G23">
+        <v>0.116670563479074</v>
+      </c>
+      <c s="3" t="str" r="H23"/>
+      <c s="7" r="I23">
+        <v>0.119577433131041</v>
+      </c>
+      <c s="7" r="J23">
+        <v>0.115012962526514</v>
+      </c>
+    </row>
+    <row r="24" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A24">
+        <is>
+          <t xml:space="preserve">13039</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">Camden, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C24">
+        <v>4</v>
+      </c>
+      <c s="7" r="D24">
+        <v>0.059179186515207</v>
+      </c>
+      <c s="7" r="E24">
+        <v>0.0817048994619088</v>
+      </c>
+      <c s="7" r="F24">
+        <v>0.134615384615385</v>
+      </c>
+      <c s="7" r="G24">
+        <v>0.159764051011507</v>
+      </c>
+      <c s="3" t="str" r="H24"/>
+      <c s="7" r="I24">
+        <v>0.188443365271033</v>
+      </c>
+      <c s="7" r="J24">
+        <v>0.218091840257797</v>
+      </c>
+    </row>
+    <row r="25" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A25">
+        <is>
+          <t xml:space="preserve">13043</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">Candler, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C25">
+        <v>7</v>
+      </c>
+      <c s="7" r="D25">
+        <v>0.0758562128502689</v>
+      </c>
+      <c s="7" r="E25">
+        <v>0.0904667109046671</v>
+      </c>
+      <c s="7" r="F25">
+        <v>0.0989551321450522</v>
+      </c>
+      <c s="7" r="G25">
+        <v>0.10152448913396</v>
+      </c>
+      <c s="3" t="str" r="H25"/>
+      <c s="7" r="I25">
+        <v>0.15061446127465</v>
+      </c>
+      <c s="7" r="J25">
+        <v>0.126495256427884</v>
+      </c>
+    </row>
+    <row r="26" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A26">
+        <is>
+          <t xml:space="preserve">13045</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">Carroll, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C26">
+        <v>1</v>
+      </c>
+      <c s="7" r="D26">
+        <v>0.0751574959249306</v>
+      </c>
+      <c s="7" r="E26">
+        <v>0.112065347237917</v>
+      </c>
+      <c s="7" r="F26">
+        <v>0.120441492756021</v>
+      </c>
+      <c s="7" r="G26">
+        <v>0.16512045488553</v>
+      </c>
+      <c s="3" t="str" r="H26"/>
+      <c s="7" r="I26">
+        <v>0.188428059395801</v>
+      </c>
+      <c s="7" r="J26">
+        <v>0.215490052565041</v>
+      </c>
+    </row>
+    <row r="27" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A27">
+        <is>
+          <t xml:space="preserve">13047</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">Catoosa, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C27">
+        <v>2</v>
+      </c>
+      <c s="7" r="D27">
+        <v>0.028606126028876</v>
+      </c>
+      <c s="7" r="E27">
+        <v>0.0725693471560661</v>
+      </c>
+      <c s="7" r="F27">
+        <v>0.0809543005826951</v>
+      </c>
+      <c s="7" r="G27">
+        <v>0.137861542391644</v>
+      </c>
+      <c s="3" t="str" r="H27"/>
+      <c s="7" r="I27">
+        <v>0.178272786397844</v>
+      </c>
+      <c s="7" r="J27">
+        <v>0.221304671703735</v>
+      </c>
+    </row>
+    <row r="28" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A28">
+        <is>
+          <t xml:space="preserve">13049</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">Charlton, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C28">
+        <v>6</v>
+      </c>
+      <c s="7" r="D28">
+        <v>0.0552857676503549</v>
+      </c>
+      <c s="7" r="E28">
+        <v>0.0552340873224619</v>
+      </c>
+      <c s="7" r="F28">
+        <v>0.0639744102359056</v>
+      </c>
+      <c s="7" r="G28">
+        <v>0.0635540287320425</v>
+      </c>
+      <c s="3" t="str" r="H28"/>
+      <c s="7" r="I28">
+        <v>0.0991473546130302</v>
+      </c>
+      <c s="7" r="J28">
+        <v>0.120511125798634</v>
+      </c>
+    </row>
+    <row r="29" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A29">
+        <is>
+          <t xml:space="preserve">13051</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">Chatham, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C29">
+        <v>2</v>
+      </c>
+      <c s="7" r="D29">
+        <v>0.0884375750112191</v>
+      </c>
+      <c s="7" r="E29">
+        <v>0.141299504626111</v>
+      </c>
+      <c s="7" r="F29">
+        <v>0.186410111077578</v>
+      </c>
+      <c s="7" r="G29">
+        <v>0.250147109550961</v>
+      </c>
+      <c s="3" t="str" r="H29"/>
+      <c s="7" r="I29">
+        <v>0.303300780566348</v>
+      </c>
+      <c s="7" r="J29">
+        <v>0.35545638783232</v>
+      </c>
+    </row>
+    <row r="30" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A30">
+        <is>
+          <t xml:space="preserve">13053</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">Chattahoochee, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C30">
+        <v>2</v>
+      </c>
+      <c s="7" r="D30">
+        <v>0.194024276377218</v>
+      </c>
+      <c s="7" r="E30">
+        <v>0.204007285974499</v>
+      </c>
+      <c s="7" r="F30">
+        <v>0.202095154954168</v>
+      </c>
+      <c s="7" r="G30">
+        <v>0.250116877045348</v>
+      </c>
+      <c s="3" t="str" r="H30"/>
+      <c s="7" r="I30">
+        <v>0.281107669885225</v>
+      </c>
+      <c s="7" r="J30">
+        <v>0.246691256237796</v>
+      </c>
+    </row>
+    <row r="31" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A31">
+        <is>
+          <t xml:space="preserve">13055</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">Chattooga, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C31">
+        <v>6</v>
+      </c>
+      <c s="7" r="D31">
+        <v>0.026318082788671</v>
+      </c>
+      <c s="7" r="E31">
+        <v>0.05863539445629</v>
+      </c>
+      <c s="7" r="F31">
+        <v>0.0589594566206848</v>
+      </c>
+      <c s="7" r="G31">
+        <v>0.0768148235018178</v>
+      </c>
+      <c s="3" t="str" r="H31"/>
+      <c s="7" r="I31">
+        <v>0.0819708721611517</v>
+      </c>
+      <c s="7" r="J31">
+        <v>0.108532104741354</v>
+      </c>
+    </row>
+    <row r="32" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A32">
+        <is>
+          <t xml:space="preserve">13057</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">Cherokee, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C32">
+        <v>1</v>
+      </c>
+      <c s="7" r="D32">
+        <v>0.0408063530849114</v>
+      </c>
+      <c s="7" r="E32">
+        <v>0.0969223387483721</v>
+      </c>
+      <c s="7" r="F32">
+        <v>0.183929614615235</v>
+      </c>
+      <c s="7" r="G32">
+        <v>0.269801735772046</v>
+      </c>
+      <c s="3" t="str" r="H32"/>
+      <c s="7" r="I32">
+        <v>0.346012287510562</v>
+      </c>
+      <c s="7" r="J32">
+        <v>0.383894689570001</v>
+      </c>
+    </row>
+    <row r="33" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A33">
+        <is>
+          <t xml:space="preserve">13059</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">Clarke, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C33">
+        <v>3</v>
+      </c>
+      <c s="7" r="D33">
+        <v>0.277987244088939</v>
+      </c>
+      <c s="7" r="E33">
+        <v>0.349902207320481</v>
+      </c>
+      <c s="7" r="F33">
+        <v>0.374907963140632</v>
+      </c>
+      <c s="7" r="G33">
+        <v>0.398225479795544</v>
+      </c>
+      <c s="3" t="str" r="H33"/>
+      <c s="7" r="I33">
+        <v>0.408044096960974</v>
+      </c>
+      <c s="7" r="J33">
+        <v>0.469579979190625</v>
+      </c>
+    </row>
+    <row r="34" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A34">
+        <is>
+          <t xml:space="preserve">13061</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">Clay, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C34">
+        <v>9</v>
+      </c>
+      <c s="7" r="D34">
+        <v>0.0769230769230769</v>
+      </c>
+      <c s="7" r="E34">
+        <v>0.0975374215354901</v>
+      </c>
+      <c s="7" r="F34">
+        <v>0.112073112073112</v>
+      </c>
+      <c s="7" r="G34">
+        <v>0.100677200902935</v>
+      </c>
+      <c s="3" t="str" r="H34"/>
+      <c s="7" r="I34">
+        <v>0.0921421889616464</v>
+      </c>
+      <c s="7" r="J34">
+        <v>0.180756655768333</v>
+      </c>
+    </row>
+    <row r="35" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A35">
+        <is>
+          <t xml:space="preserve">13063</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">Clayton, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C35">
+        <v>1</v>
+      </c>
+      <c s="7" r="D35">
+        <v>0.0603413028040199</v>
+      </c>
+      <c s="7" r="E35">
+        <v>0.103383203621249</v>
+      </c>
+      <c s="7" r="F35">
+        <v>0.147145731740478</v>
+      </c>
+      <c s="7" r="G35">
+        <v>0.166325218644475</v>
+      </c>
+      <c s="3" t="str" r="H35"/>
+      <c s="7" r="I35">
+        <v>0.17513752766361</v>
+      </c>
+      <c s="7" r="J35">
+        <v>0.202244560127203</v>
+      </c>
+    </row>
+    <row r="36" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A36">
+        <is>
+          <t xml:space="preserve">13065</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">Clinch, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C36">
+        <v>6</v>
+      </c>
+      <c s="7" r="D36">
+        <v>0.0414085425497229</v>
+      </c>
+      <c s="7" r="E36">
+        <v>0.0650520980005632</v>
+      </c>
+      <c s="7" r="F36">
+        <v>0.0668127053669222</v>
+      </c>
+      <c s="7" r="G36">
+        <v>0.104337899543379</v>
+      </c>
+      <c s="3" t="str" r="H36"/>
+      <c s="7" r="I36">
+        <v>0.150323774283071</v>
+      </c>
+      <c s="7" r="J36">
+        <v>0.109535238926467</v>
+      </c>
+    </row>
+    <row r="37" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A37">
+        <is>
+          <t xml:space="preserve">13067</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">Cobb, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C37">
+        <v>1</v>
+      </c>
+      <c s="7" r="D37">
+        <v>0.0968338363749026</v>
+      </c>
+      <c s="7" r="E37">
+        <v>0.229728565273589</v>
+      </c>
+      <c s="7" r="F37">
+        <v>0.3298466699939</v>
+      </c>
+      <c s="7" r="G37">
+        <v>0.397567718648586</v>
+      </c>
+      <c s="3" t="str" r="H37"/>
+      <c s="7" r="I37">
+        <v>0.438431960779108</v>
+      </c>
+      <c s="7" r="J37">
+        <v>0.490322368127854</v>
+      </c>
+    </row>
+    <row r="38" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A38">
+        <is>
+          <t xml:space="preserve">13069</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">Coffee, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C38">
+        <v>7</v>
+      </c>
+      <c s="7" r="D38">
+        <v>0.0532329495128432</v>
+      </c>
+      <c s="7" r="E38">
+        <v>0.081888246628131</v>
+      </c>
+      <c s="7" r="F38">
+        <v>0.111264130372411</v>
+      </c>
+      <c s="7" r="G38">
+        <v>0.100315817176945</v>
+      </c>
+      <c s="3" t="str" r="H38"/>
+      <c s="7" r="I38">
+        <v>0.113460967646186</v>
+      </c>
+      <c s="7" r="J38">
+        <v>0.14035828669975</v>
+      </c>
+    </row>
+    <row r="39" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A39">
+        <is>
+          <t xml:space="preserve">13071</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">Colquitt, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C39">
+        <v>6</v>
+      </c>
+      <c s="7" r="D39">
+        <v>0.0428605256926356</v>
+      </c>
+      <c s="7" r="E39">
+        <v>0.0835806132542038</v>
+      </c>
+      <c s="7" r="F39">
+        <v>0.0997959726780804</v>
+      </c>
+      <c s="7" r="G39">
+        <v>0.114019979331726</v>
+      </c>
+      <c s="3" t="str" r="H39"/>
+      <c s="7" r="I39">
+        <v>0.132540208631337</v>
+      </c>
+      <c s="7" r="J39">
+        <v>0.144166137176872</v>
+      </c>
+    </row>
+    <row r="40" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A40">
+        <is>
+          <t xml:space="preserve">13073</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B40">
+        <is>
+          <t xml:space="preserve">Columbia, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C40">
+        <v>2</v>
+      </c>
+      <c s="7" r="D40">
+        <v>0.0537396654489521</v>
+      </c>
+      <c s="7" r="E40">
+        <v>0.153782819504162</v>
+      </c>
+      <c s="7" r="F40">
+        <v>0.238750529753447</v>
+      </c>
+      <c s="7" r="G40">
+        <v>0.319507796754004</v>
+      </c>
+      <c s="3" t="str" r="H40"/>
+      <c s="7" r="I40">
+        <v>0.346862552890521</v>
+      </c>
+      <c s="7" r="J40">
+        <v>0.375357915035353</v>
+      </c>
+    </row>
+    <row r="41" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A41">
+        <is>
+          <t xml:space="preserve">13075</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B41">
+        <is>
+          <t xml:space="preserve">Cook, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C41">
+        <v>6</v>
+      </c>
+      <c s="7" r="D41">
+        <v>0.0403393628941892</v>
+      </c>
+      <c s="7" r="E41">
+        <v>0.0565113816834304</v>
+      </c>
+      <c s="7" r="F41">
+        <v>0.0649981776211882</v>
+      </c>
+      <c s="7" r="G41">
+        <v>0.0812069663831511</v>
+      </c>
+      <c s="3" t="str" r="H41"/>
+      <c s="7" r="I41">
+        <v>0.119077872572155</v>
+      </c>
+      <c s="7" r="J41">
+        <v>0.166485998193315</v>
+      </c>
+    </row>
+    <row r="42" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A42">
+        <is>
+          <t xml:space="preserve">13077</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">Coweta, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C42">
+        <v>1</v>
+      </c>
+      <c s="7" r="D42">
+        <v>0.0705057644400672</v>
+      </c>
+      <c s="7" r="E42">
+        <v>0.0983556102708407</v>
+      </c>
+      <c s="7" r="F42">
+        <v>0.132622179606269</v>
+      </c>
+      <c s="7" r="G42">
+        <v>0.206068179018321</v>
+      </c>
+      <c s="3" t="str" r="H42"/>
+      <c s="7" r="I42">
+        <v>0.260546653645362</v>
+      </c>
+      <c s="7" r="J42">
+        <v>0.336708060602353</v>
+      </c>
+    </row>
+    <row r="43" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A43">
+        <is>
+          <t xml:space="preserve">13079</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B43">
+        <is>
+          <t xml:space="preserve">Crawford, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C43">
+        <v>3</v>
+      </c>
+      <c s="7" r="D43">
+        <v>0.0257234726688103</v>
+      </c>
+      <c s="7" r="E43">
+        <v>0.0650717703349282</v>
+      </c>
+      <c s="7" r="F43">
+        <v>0.0567795092244313</v>
+      </c>
+      <c s="7" r="G43">
+        <v>0.0681987577639752</v>
+      </c>
+      <c s="3" t="str" r="H43"/>
+      <c s="7" r="I43">
+        <v>0.126345019090594</v>
+      </c>
+      <c s="7" r="J43">
+        <v>0.113448796931303</v>
+      </c>
+    </row>
+    <row r="44" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A44">
+        <is>
+          <t xml:space="preserve">13081</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">Crisp, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C44">
+        <v>6</v>
+      </c>
+      <c s="7" r="D44">
+        <v>0.0768980829632839</v>
+      </c>
+      <c s="7" r="E44">
+        <v>0.0897566392153234</v>
+      </c>
+      <c s="7" r="F44">
+        <v>0.0998438655600296</v>
+      </c>
+      <c s="7" r="G44">
+        <v>0.127799255963236</v>
+      </c>
+      <c s="3" t="str" r="H44"/>
+      <c s="7" r="I44">
+        <v>0.137285695589583</v>
+      </c>
+      <c s="7" r="J44">
+        <v>0.137049941927991</v>
+      </c>
+    </row>
+    <row r="45" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A45">
+        <is>
+          <t xml:space="preserve">13083</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">Dade, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C45">
+        <v>2</v>
+      </c>
+      <c s="7" r="D45">
+        <v>0.0349959774738536</v>
+      </c>
+      <c s="7" r="E45">
+        <v>0.0780745523921338</v>
+      </c>
+      <c s="7" r="F45">
+        <v>0.0801081213908343</v>
+      </c>
+      <c s="7" r="G45">
+        <v>0.108861019736842</v>
+      </c>
+      <c s="3" t="str" r="H45"/>
+      <c s="7" r="I45">
+        <v>0.169489981785064</v>
+      </c>
+      <c s="7" r="J45">
+        <v>0.164467187359727</v>
+      </c>
+    </row>
+    <row r="46" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A46">
+        <is>
+          <t xml:space="preserve">13085</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">Dawson, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C46">
+        <v>1</v>
+      </c>
+      <c s="7" r="D46">
+        <v>0.0254582484725051</v>
+      </c>
+      <c s="7" r="E46">
+        <v>0.0442321302193914</v>
+      </c>
+      <c s="7" r="F46">
+        <v>0.0863927248231728</v>
+      </c>
+      <c s="7" r="G46">
+        <v>0.18071056547619</v>
+      </c>
+      <c s="3" t="str" r="H46"/>
+      <c s="7" r="I46">
+        <v>0.234672580224367</v>
+      </c>
+      <c s="7" r="J46">
+        <v>0.32761285508714</v>
+      </c>
+    </row>
+    <row r="47" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A47">
+        <is>
+          <t xml:space="preserve">13087</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">Decatur, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C47">
+        <v>6</v>
+      </c>
+      <c s="7" r="D47">
+        <v>0.0437205315045006</v>
+      </c>
+      <c s="7" r="E47">
+        <v>0.0835606604450825</v>
+      </c>
+      <c s="7" r="F47">
+        <v>0.116877197551765</v>
+      </c>
+      <c s="7" r="G47">
+        <v>0.121136505415981</v>
+      </c>
+      <c s="3" t="str" r="H47"/>
+      <c s="7" r="I47">
+        <v>0.139357828533598</v>
+      </c>
+      <c s="7" r="J47">
+        <v>0.145982746076291</v>
+      </c>
+    </row>
+    <row r="48" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A48">
+        <is>
+          <t xml:space="preserve">13089</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">DeKalb, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C48">
+        <v>1</v>
+      </c>
+      <c s="7" r="D48">
+        <v>0.19269936423126</v>
+      </c>
+      <c s="7" r="E48">
+        <v>0.279167851051734</v>
+      </c>
+      <c s="7" r="F48">
+        <v>0.327370861058358</v>
+      </c>
+      <c s="7" r="G48">
+        <v>0.363013714559481</v>
+      </c>
+      <c s="3" t="str" r="H48"/>
+      <c s="7" r="I48">
+        <v>0.391824741728326</v>
+      </c>
+      <c s="7" r="J48">
+        <v>0.46093864232779</v>
+      </c>
+    </row>
+    <row r="49" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A49">
+        <is>
+          <t xml:space="preserve">13091</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">Dodge, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C49">
+        <v>6</v>
+      </c>
+      <c s="7" r="D49">
+        <v>0.0423154641626055</v>
+      </c>
+      <c s="7" r="E49">
+        <v>0.0656852791878173</v>
+      </c>
+      <c s="7" r="F49">
+        <v>0.0801075268817204</v>
+      </c>
+      <c s="7" r="G49">
+        <v>0.115910727141829</v>
+      </c>
+      <c s="3" t="str" r="H49"/>
+      <c s="7" r="I49">
+        <v>0.140090560780216</v>
+      </c>
+      <c s="7" r="J49">
+        <v>0.155595369349504</v>
+      </c>
+    </row>
+    <row r="50" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A50">
+        <is>
+          <t xml:space="preserve">13093</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">Dooly, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C50">
+        <v>6</v>
+      </c>
+      <c s="7" r="D50">
+        <v>0.0426531379180759</v>
+      </c>
+      <c s="7" r="E50">
+        <v>0.0794557366033933</v>
+      </c>
+      <c s="7" r="F50">
+        <v>0.0949271722752386</v>
+      </c>
+      <c s="7" r="G50">
+        <v>0.0963196059652483</v>
+      </c>
+      <c s="3" t="str" r="H50"/>
+      <c s="7" r="I50">
+        <v>0.0967935871743487</v>
+      </c>
+      <c s="7" r="J50">
+        <v>0.135847288909708</v>
+      </c>
+    </row>
+    <row r="51" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A51">
+        <is>
+          <t xml:space="preserve">13095</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">Dougherty, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C51">
+        <v>3</v>
+      </c>
+      <c s="7" r="D51">
+        <v>0.0952577720522107</v>
+      </c>
+      <c s="7" r="E51">
+        <v>0.142196553973675</v>
+      </c>
+      <c s="7" r="F51">
+        <v>0.169953439876319</v>
+      </c>
+      <c s="7" r="G51">
+        <v>0.178322762994623</v>
+      </c>
+      <c s="3" t="str" r="H51"/>
+      <c s="7" r="I51">
+        <v>0.18087690584891</v>
+      </c>
+      <c s="7" r="J51">
+        <v>0.226380313199105</v>
+      </c>
+    </row>
+    <row r="52" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A52">
+        <is>
+          <t xml:space="preserve">13097</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">Douglas, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C52">
+        <v>1</v>
+      </c>
+      <c s="7" r="D52">
+        <v>0.0512960809794132</v>
+      </c>
+      <c s="7" r="E52">
+        <v>0.0906750476445217</v>
+      </c>
+      <c s="7" r="F52">
+        <v>0.120349252424724</v>
+      </c>
+      <c s="7" r="G52">
+        <v>0.192291308126161</v>
+      </c>
+      <c s="3" t="str" r="H52"/>
+      <c s="7" r="I52">
+        <v>0.248188535762967</v>
+      </c>
+      <c s="7" r="J52">
+        <v>0.29384951137964</v>
+      </c>
+    </row>
+    <row r="53" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A53">
+        <is>
+          <t xml:space="preserve">13099</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">Early, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C53">
+        <v>6</v>
+      </c>
+      <c s="7" r="D53">
+        <v>0.0429012345679012</v>
+      </c>
+      <c s="7" r="E53">
+        <v>0.0855629877369008</v>
+      </c>
+      <c s="7" r="F53">
+        <v>0.0935851152457651</v>
+      </c>
+      <c s="7" r="G53">
+        <v>0.125635162601626</v>
+      </c>
+      <c s="3" t="str" r="H53"/>
+      <c s="7" r="I53">
+        <v>0.121394567348082</v>
+      </c>
+      <c s="7" r="J53">
+        <v>0.143568582811611</v>
+      </c>
+    </row>
+    <row r="54" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A54">
+        <is>
+          <t xml:space="preserve">13101</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">Echols, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C54">
+        <v>3</v>
+      </c>
+      <c s="7" r="D54">
+        <v>0.0123318385650224</v>
+      </c>
+      <c s="7" r="E54">
+        <v>0.0389926888708367</v>
+      </c>
+      <c s="7" r="F54">
+        <v>0.0472779369627507</v>
+      </c>
+      <c s="7" r="G54">
+        <v>0.0835256114443932</v>
+      </c>
+      <c s="3" t="str" r="H54"/>
+      <c s="7" r="I54">
+        <v>0.0746766791823112</v>
+      </c>
+      <c s="7" r="J54">
+        <v>0.101960784313725</v>
+      </c>
+    </row>
+    <row r="55" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A55">
+        <is>
+          <t xml:space="preserve">13103</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">Effingham, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C55">
+        <v>2</v>
+      </c>
+      <c s="7" r="D55">
+        <v>0.0279740871613663</v>
+      </c>
+      <c s="7" r="E55">
+        <v>0.0518087984768013</v>
+      </c>
+      <c s="7" r="F55">
+        <v>0.0764461447134094</v>
+      </c>
+      <c s="7" r="G55">
+        <v>0.136495308919538</v>
+      </c>
+      <c s="3" t="str" r="H55"/>
+      <c s="7" r="I55">
+        <v>0.169124996214072</v>
+      </c>
+      <c s="7" r="J55">
+        <v>0.241176612300947</v>
+      </c>
+    </row>
+    <row r="56" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A56">
+        <is>
+          <t xml:space="preserve">13105</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">Elbert, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C56">
+        <v>6</v>
+      </c>
+      <c s="7" r="D56">
+        <v>0.0549081364829396</v>
+      </c>
+      <c s="7" r="E56">
+        <v>0.0790567401517889</v>
+      </c>
+      <c s="7" r="F56">
+        <v>0.0798472910405329</v>
+      </c>
+      <c s="7" r="G56">
+        <v>0.0984798413747521</v>
+      </c>
+      <c s="3" t="str" r="H56"/>
+      <c s="7" r="I56">
+        <v>0.111937003238151</v>
+      </c>
+      <c s="7" r="J56">
+        <v>0.12557127312296</v>
+      </c>
+    </row>
+    <row r="57" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A57">
+        <is>
+          <t xml:space="preserve">13107</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">Emanuel, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C57">
+        <v>7</v>
+      </c>
+      <c s="7" r="D57">
+        <v>0.0490155440414508</v>
+      </c>
+      <c s="7" r="E57">
+        <v>0.072385830132309</v>
+      </c>
+      <c s="7" r="F57">
+        <v>0.0906675255656655</v>
+      </c>
+      <c s="7" r="G57">
+        <v>0.100556999628667</v>
+      </c>
+      <c s="3" t="str" r="H57"/>
+      <c s="7" r="I57">
+        <v>0.0985944323144105</v>
+      </c>
+      <c s="7" r="J57">
+        <v>0.127874518144357</v>
+      </c>
+    </row>
+    <row r="58" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A58">
+        <is>
+          <t xml:space="preserve">13109</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">Evans, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C58">
+        <v>6</v>
+      </c>
+      <c s="7" r="D58">
+        <v>0.0511800583399629</v>
+      </c>
+      <c s="7" r="E58">
+        <v>0.0720604099244876</v>
+      </c>
+      <c s="7" r="F58">
+        <v>0.0864955357142857</v>
+      </c>
+      <c s="7" r="G58">
+        <v>0.089908256880734</v>
+      </c>
+      <c s="3" t="str" r="H58"/>
+      <c s="7" r="I58">
+        <v>0.137229806598407</v>
+      </c>
+      <c s="7" r="J58">
+        <v>0.157954384473721</v>
+      </c>
+    </row>
+    <row r="59" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A59">
+        <is>
+          <t xml:space="preserve">13111</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">Fannin, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C59">
+        <v>8</v>
+      </c>
+      <c s="7" r="D59">
+        <v>0.0346746021477552</v>
+      </c>
+      <c s="7" r="E59">
+        <v>0.0522435222245629</v>
+      </c>
+      <c s="7" r="F59">
+        <v>0.0778171252156542</v>
+      </c>
+      <c s="7" r="G59">
+        <v>0.104331397382968</v>
+      </c>
+      <c s="3" t="str" r="H59"/>
+      <c s="7" r="I59">
+        <v>0.154050991501416</v>
+      </c>
+      <c s="7" r="J59">
+        <v>0.234735552379008</v>
+      </c>
+    </row>
+    <row r="60" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A60">
+        <is>
+          <t xml:space="preserve">13113</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">Fayette, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C60">
+        <v>1</v>
+      </c>
+      <c s="7" r="D60">
+        <v>0.0474288567149276</v>
+      </c>
+      <c s="7" r="E60">
+        <v>0.164955752212389</v>
+      </c>
+      <c s="7" r="F60">
+        <v>0.257792754844145</v>
+      </c>
+      <c s="7" r="G60">
+        <v>0.361715466992002</v>
+      </c>
+      <c s="3" t="str" r="H60"/>
+      <c s="7" r="I60">
+        <v>0.421125156427959</v>
+      </c>
+      <c s="7" r="J60">
+        <v>0.462199056837925</v>
+      </c>
+    </row>
+    <row r="61" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A61">
+        <is>
+          <t xml:space="preserve">13115</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B61">
+        <is>
+          <t xml:space="preserve">Floyd, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C61">
+        <v>3</v>
+      </c>
+      <c s="7" r="D61">
+        <v>0.0707683988004523</v>
+      </c>
+      <c s="7" r="E61">
+        <v>0.117741188360635</v>
+      </c>
+      <c s="7" r="F61">
+        <v>0.137116558583573</v>
+      </c>
+      <c s="7" r="G61">
+        <v>0.15800242110109</v>
+      </c>
+      <c s="3" t="str" r="H61"/>
+      <c s="7" r="I61">
+        <v>0.182324220303132</v>
+      </c>
+      <c s="7" r="J61">
+        <v>0.209384575514124</v>
+      </c>
+    </row>
+    <row r="62" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A62">
+        <is>
+          <t xml:space="preserve">13117</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B62">
+        <is>
+          <t xml:space="preserve">Forsyth, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C62">
+        <v>1</v>
+      </c>
+      <c s="7" r="D62">
+        <v>0.0264795745162385</v>
+      </c>
+      <c s="7" r="E62">
+        <v>0.0870383144165047</v>
+      </c>
+      <c s="7" r="F62">
+        <v>0.155714587886907</v>
+      </c>
+      <c s="7" r="G62">
+        <v>0.345856336598644</v>
+      </c>
+      <c s="3" t="str" r="H62"/>
+      <c s="7" r="I62">
+        <v>0.433449114888215</v>
+      </c>
+      <c s="7" r="J62">
+        <v>0.559172298561061</v>
+      </c>
+    </row>
+    <row r="63" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A63">
+        <is>
+          <t xml:space="preserve">13119</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B63">
+        <is>
+          <t xml:space="preserve">Franklin, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C63">
+        <v>8</v>
+      </c>
+      <c s="7" r="D63">
+        <v>0.0559743160245673</v>
+      </c>
+      <c s="7" r="E63">
+        <v>0.0786738155159208</v>
+      </c>
+      <c s="7" r="F63">
+        <v>0.0945735010559177</v>
+      </c>
+      <c s="7" r="G63">
+        <v>0.103361094586556</v>
+      </c>
+      <c s="3" t="str" r="H63"/>
+      <c s="7" r="I63">
+        <v>0.134534252996719</v>
+      </c>
+      <c s="7" r="J63">
+        <v>0.165927521540801</v>
+      </c>
+    </row>
+    <row r="64" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A64">
+        <is>
+          <t xml:space="preserve">13121</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">Fulton, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C64">
+        <v>1</v>
+      </c>
+      <c s="7" r="D64">
+        <v>0.145011002560651</v>
+      </c>
+      <c s="7" r="E64">
+        <v>0.229620521542276</v>
+      </c>
+      <c s="7" r="F64">
+        <v>0.315519845083347</v>
+      </c>
+      <c s="7" r="G64">
+        <v>0.41385119131084</v>
+      </c>
+      <c s="3" t="str" r="H64"/>
+      <c s="7" r="I64">
+        <v>0.484062744222396</v>
+      </c>
+      <c s="7" r="J64">
+        <v>0.558732243046437</v>
+      </c>
+    </row>
+    <row r="65" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A65">
+        <is>
+          <t xml:space="preserve">13123</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B65">
+        <is>
+          <t xml:space="preserve">Gilmer, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C65">
+        <v>6</v>
+      </c>
+      <c s="7" r="D65">
+        <v>0.0403899721448468</v>
+      </c>
+      <c s="7" r="E65">
+        <v>0.0658460625834198</v>
+      </c>
+      <c s="7" r="F65">
+        <v>0.0861693594591498</v>
+      </c>
+      <c s="7" r="G65">
+        <v>0.129024048861178</v>
+      </c>
+      <c s="3" t="str" r="H65"/>
+      <c s="7" r="I65">
+        <v>0.144956413449564</v>
+      </c>
+      <c s="7" r="J65">
+        <v>0.219574875860267</v>
+      </c>
+    </row>
+    <row r="66" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A66">
+        <is>
+          <t xml:space="preserve">13125</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B66">
+        <is>
+          <t xml:space="preserve">Glascock, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C66">
+        <v>9</v>
+      </c>
+      <c s="7" r="D66">
+        <v>0.0108303249097473</v>
+      </c>
+      <c s="7" r="E66">
+        <v>0.0476190476190476</v>
+      </c>
+      <c s="7" r="F66">
+        <v>0.0530586766541823</v>
+      </c>
+      <c s="7" r="G66">
+        <v>0.0646258503401361</v>
+      </c>
+      <c s="3" t="str" r="H66"/>
+      <c s="7" r="I66">
+        <v>0.0931211979410388</v>
+      </c>
+      <c s="7" r="J66">
+        <v>0.116171954964176</v>
+      </c>
+    </row>
+    <row r="67" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A67">
+        <is>
+          <t xml:space="preserve">13127</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B67">
+        <is>
+          <t xml:space="preserve">Glynn, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C67">
+        <v>3</v>
+      </c>
+      <c s="7" r="D67">
+        <v>0.0996694735185331</v>
+      </c>
+      <c s="7" r="E67">
+        <v>0.148657884926059</v>
+      </c>
+      <c s="7" r="F67">
+        <v>0.198530866640285</v>
+      </c>
+      <c s="7" r="G67">
+        <v>0.237780654376646</v>
+      </c>
+      <c s="3" t="str" r="H67"/>
+      <c s="7" r="I67">
+        <v>0.258216923048306</v>
+      </c>
+      <c s="7" r="J67">
+        <v>0.304041440320221</v>
+      </c>
+    </row>
+    <row r="68" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A68">
+        <is>
+          <t xml:space="preserve">13129</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B68">
+        <is>
+          <t xml:space="preserve">Gordon, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C68">
+        <v>4</v>
+      </c>
+      <c s="7" r="D68">
+        <v>0.0368507896597784</v>
+      </c>
+      <c s="7" r="E68">
+        <v>0.0681594059980277</v>
+      </c>
+      <c s="7" r="F68">
+        <v>0.0919035196118815</v>
+      </c>
+      <c s="7" r="G68">
+        <v>0.106002106002106</v>
+      </c>
+      <c s="3" t="str" r="H68"/>
+      <c s="7" r="I68">
+        <v>0.13904061129192</v>
+      </c>
+      <c s="7" r="J68">
+        <v>0.161110823541591</v>
+      </c>
+    </row>
+    <row r="69" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A69">
+        <is>
+          <t xml:space="preserve">13131</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B69">
+        <is>
+          <t xml:space="preserve">Grady, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C69">
+        <v>6</v>
+      </c>
+      <c s="7" r="D69">
+        <v>0.055976430976431</v>
+      </c>
+      <c s="7" r="E69">
+        <v>0.0700107296137339</v>
+      </c>
+      <c s="7" r="F69">
+        <v>0.0774564652115673</v>
+      </c>
+      <c s="7" r="G69">
+        <v>0.106084867894315</v>
+      </c>
+      <c s="3" t="str" r="H69"/>
+      <c s="7" r="I69">
+        <v>0.107217380630907</v>
+      </c>
+      <c s="7" r="J69">
+        <v>0.152831476006368</v>
+      </c>
+    </row>
+    <row r="70" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A70">
+        <is>
+          <t xml:space="preserve">13133</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B70">
+        <is>
+          <t xml:space="preserve">Greene, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C70">
+        <v>6</v>
+      </c>
+      <c s="7" r="D70">
+        <v>0.057184483700601</v>
+      </c>
+      <c s="7" r="E70">
+        <v>0.0631431244153414</v>
+      </c>
+      <c s="7" r="F70">
+        <v>0.0877637130801688</v>
+      </c>
+      <c s="7" r="G70">
+        <v>0.176272612536811</v>
+      </c>
+      <c s="3" t="str" r="H70"/>
+      <c s="7" r="I70">
+        <v>0.193737270875764</v>
+      </c>
+      <c s="7" r="J70">
+        <v>0.318506115317414</v>
+      </c>
+    </row>
+    <row r="71" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A71">
+        <is>
+          <t xml:space="preserve">13135</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B71">
+        <is>
+          <t xml:space="preserve">Gwinnett, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C71">
+        <v>1</v>
+      </c>
+      <c s="7" r="D71">
+        <v>0.0629972574469818</v>
+      </c>
+      <c s="7" r="E71">
+        <v>0.188937332562904</v>
+      </c>
+      <c s="7" r="F71">
+        <v>0.296127448979129</v>
+      </c>
+      <c s="7" r="G71">
+        <v>0.340572903807551</v>
+      </c>
+      <c s="3" t="str" r="H71"/>
+      <c s="7" r="I71">
+        <v>0.34470543192529</v>
+      </c>
+      <c s="7" r="J71">
+        <v>0.385021698371222</v>
+      </c>
+    </row>
+    <row r="72" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A72">
+        <is>
+          <t xml:space="preserve">13137</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B72">
+        <is>
+          <t xml:space="preserve">Habersham, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C72">
+        <v>6</v>
+      </c>
+      <c s="7" r="D72">
+        <v>0.0687065368567455</v>
+      </c>
+      <c s="7" r="E72">
+        <v>0.0930166607585962</v>
+      </c>
+      <c s="7" r="F72">
+        <v>0.120274715761528</v>
+      </c>
+      <c s="7" r="G72">
+        <v>0.158206033785796</v>
+      </c>
+      <c s="3" t="str" r="H72"/>
+      <c s="7" r="I72">
+        <v>0.179242665926902</v>
+      </c>
+      <c s="7" r="J72">
+        <v>0.233258892449105</v>
+      </c>
+    </row>
+    <row r="73" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A73">
+        <is>
+          <t xml:space="preserve">13139</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B73">
+        <is>
+          <t xml:space="preserve">Hall, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C73">
+        <v>3</v>
+      </c>
+      <c s="7" r="D73">
+        <v>0.074865800590795</v>
+      </c>
+      <c s="7" r="E73">
+        <v>0.121549833849493</v>
+      </c>
+      <c s="7" r="F73">
+        <v>0.15390991528655</v>
+      </c>
+      <c s="7" r="G73">
+        <v>0.187293396758849</v>
+      </c>
+      <c s="3" t="str" r="H73"/>
+      <c s="7" r="I73">
+        <v>0.220967756117721</v>
+      </c>
+      <c s="7" r="J73">
+        <v>0.250619823811785</v>
+      </c>
+    </row>
+    <row r="74" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A74">
+        <is>
+          <t xml:space="preserve">13141</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B74">
+        <is>
+          <t xml:space="preserve">Hancock, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C74">
+        <v>7</v>
+      </c>
+      <c s="7" r="D74">
+        <v>0.0506818181818182</v>
+      </c>
+      <c s="7" r="E74">
+        <v>0.0639872025594881</v>
+      </c>
+      <c s="7" r="F74">
+        <v>0.0680259146341463</v>
+      </c>
+      <c s="7" r="G74">
+        <v>0.0976125717739498</v>
+      </c>
+      <c s="3" t="str" r="H74"/>
+      <c s="7" r="I74">
+        <v>0.109941344563092</v>
+      </c>
+      <c s="7" r="J74">
+        <v>0.0920840064620355</v>
+      </c>
+    </row>
+    <row r="75" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A75">
+        <is>
+          <t xml:space="preserve">13143</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B75">
+        <is>
+          <t xml:space="preserve">Haralson, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C75">
+        <v>1</v>
+      </c>
+      <c s="7" r="D75">
+        <v>0.030877511635827</v>
+      </c>
+      <c s="7" r="E75">
+        <v>0.0688903026447333</v>
+      </c>
+      <c s="7" r="F75">
+        <v>0.0746923796502842</v>
+      </c>
+      <c s="7" r="G75">
+        <v>0.0902819079338646</v>
+      </c>
+      <c s="3" t="str" r="H75"/>
+      <c s="7" r="I75">
+        <v>0.12406015037594</v>
+      </c>
+      <c s="7" r="J75">
+        <v>0.168810210768253</v>
+      </c>
+    </row>
+    <row r="76" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A76">
+        <is>
+          <t xml:space="preserve">13145</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B76">
+        <is>
+          <t xml:space="preserve">Harris, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C76">
+        <v>2</v>
+      </c>
+      <c s="7" r="D76">
+        <v>0.0706548100242522</v>
+      </c>
+      <c s="7" r="E76">
+        <v>0.118224498506189</v>
+      </c>
+      <c s="7" r="F76">
+        <v>0.13598166539343</v>
+      </c>
+      <c s="7" r="G76">
+        <v>0.211447230608096</v>
+      </c>
+      <c s="3" t="str" r="H76"/>
+      <c s="7" r="I76">
+        <v>0.281619116845357</v>
+      </c>
+      <c s="7" r="J76">
+        <v>0.323797247286789</v>
+      </c>
+    </row>
+    <row r="77" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A77">
+        <is>
+          <t xml:space="preserve">13147</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B77">
+        <is>
+          <t xml:space="preserve">Hart, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C77">
+        <v>6</v>
+      </c>
+      <c s="7" r="D77">
+        <v>0.0405824779183576</v>
+      </c>
+      <c s="7" r="E77">
+        <v>0.0766486783133632</v>
+      </c>
+      <c s="7" r="F77">
+        <v>0.0913442977376264</v>
+      </c>
+      <c s="7" r="G77">
+        <v>0.135496906175022</v>
+      </c>
+      <c s="3" t="str" r="H77"/>
+      <c s="7" r="I77">
+        <v>0.156805745554036</v>
+      </c>
+      <c s="7" r="J77">
+        <v>0.166259428450016</v>
+      </c>
+    </row>
+    <row r="78" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A78">
+        <is>
+          <t xml:space="preserve">13149</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B78">
+        <is>
+          <t xml:space="preserve">Heard, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C78">
+        <v>1</v>
+      </c>
+      <c s="7" r="D78">
+        <v>0.0386965376782077</v>
+      </c>
+      <c s="7" r="E78">
+        <v>0.0435938330675173</v>
+      </c>
+      <c s="7" r="F78">
+        <v>0.0574452003023432</v>
+      </c>
+      <c s="7" r="G78">
+        <v>0.0730769230769231</v>
+      </c>
+      <c s="3" t="str" r="H78"/>
+      <c s="7" r="I78">
+        <v>0.0741642116049699</v>
+      </c>
+      <c s="7" r="J78">
+        <v>0.104578497640607</v>
+      </c>
+    </row>
+    <row r="79" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A79">
+        <is>
+          <t xml:space="preserve">13151</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B79">
+        <is>
+          <t xml:space="preserve">Henry, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C79">
+        <v>1</v>
+      </c>
+      <c s="7" r="D79">
+        <v>0.0376438954709688</v>
+      </c>
+      <c s="7" r="E79">
+        <v>0.0944953253195955</v>
+      </c>
+      <c s="7" r="F79">
+        <v>0.106993214932555</v>
+      </c>
+      <c s="7" r="G79">
+        <v>0.195494099415902</v>
+      </c>
+      <c s="3" t="str" r="H79"/>
+      <c s="7" r="I79">
+        <v>0.250037272149465</v>
+      </c>
+      <c s="7" r="J79">
+        <v>0.282364867499318</v>
+      </c>
+    </row>
+    <row r="80" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A80">
+        <is>
+          <t xml:space="preserve">13153</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B80">
+        <is>
+          <t xml:space="preserve">Houston, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C80">
+        <v>3</v>
+      </c>
+      <c s="7" r="D80">
+        <v>0.0962466852519209</v>
+      </c>
+      <c s="7" r="E80">
+        <v>0.13235611640237</v>
+      </c>
+      <c s="7" r="F80">
+        <v>0.159668568127663</v>
+      </c>
+      <c s="7" r="G80">
+        <v>0.197528897129117</v>
+      </c>
+      <c s="3" t="str" r="H80"/>
+      <c s="7" r="I80">
+        <v>0.248227108763387</v>
+      </c>
+      <c s="7" r="J80">
+        <v>0.312258198775977</v>
+      </c>
+    </row>
+    <row r="81" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A81">
+        <is>
+          <t xml:space="preserve">13155</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B81">
+        <is>
+          <t xml:space="preserve">Irwin, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C81">
+        <v>7</v>
+      </c>
+      <c s="7" r="D81">
+        <v>0.055045871559633</v>
+      </c>
+      <c s="7" r="E81">
+        <v>0.0569121322822534</v>
+      </c>
+      <c s="7" r="F81">
+        <v>0.082803738317757</v>
+      </c>
+      <c s="7" r="G81">
+        <v>0.0986120077469335</v>
+      </c>
+      <c s="3" t="str" r="H81"/>
+      <c s="7" r="I81">
+        <v>0.0790001542971764</v>
+      </c>
+      <c s="7" r="J81">
+        <v>0.171027059351174</v>
+      </c>
+    </row>
+    <row r="82" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A82">
+        <is>
+          <t xml:space="preserve">13157</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B82">
+        <is>
+          <t xml:space="preserve">Jackson, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C82">
+        <v>4</v>
+      </c>
+      <c s="7" r="D82">
+        <v>0.050557880055788</v>
+      </c>
+      <c s="7" r="E82">
+        <v>0.0795616960457361</v>
+      </c>
+      <c s="7" r="F82">
+        <v>0.0900142127704374</v>
+      </c>
+      <c s="7" r="G82">
+        <v>0.117434541323699</v>
+      </c>
+      <c s="3" t="str" r="H82"/>
+      <c s="7" r="I82">
+        <v>0.187020484642848</v>
+      </c>
+      <c s="7" r="J82">
+        <v>0.250029965240321</v>
+      </c>
+    </row>
+    <row r="83" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A83">
+        <is>
+          <t xml:space="preserve">13159</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B83">
+        <is>
+          <t xml:space="preserve">Jasper, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C83">
+        <v>1</v>
+      </c>
+      <c s="7" r="D83">
+        <v>0.063657031503735</v>
+      </c>
+      <c s="7" r="E83">
+        <v>0.092042620720925</v>
+      </c>
+      <c s="7" r="F83">
+        <v>0.108128402477943</v>
+      </c>
+      <c s="7" r="G83">
+        <v>0.115389722480414</v>
+      </c>
+      <c s="3" t="str" r="H83"/>
+      <c s="7" r="I83">
+        <v>0.142763731473409</v>
+      </c>
+      <c s="7" r="J83">
+        <v>0.16118453741429</v>
+      </c>
+    </row>
+    <row r="84" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A84">
+        <is>
+          <t xml:space="preserve">13161</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B84">
+        <is>
+          <t xml:space="preserve">Jeff Davis, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C84">
+        <v>7</v>
+      </c>
+      <c s="7" r="D84">
+        <v>0.0450733752620545</v>
+      </c>
+      <c s="7" r="E84">
+        <v>0.0742082873798645</v>
+      </c>
+      <c s="7" r="F84">
+        <v>0.0826378437542755</v>
+      </c>
+      <c s="7" r="G84">
+        <v>0.0937033349925336</v>
+      </c>
+      <c s="3" t="str" r="H84"/>
+      <c s="7" r="I84">
+        <v>0.113595036902343</v>
+      </c>
+      <c s="7" r="J84">
+        <v>0.128498595359484</v>
+      </c>
+    </row>
+    <row r="85" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A85">
+        <is>
+          <t xml:space="preserve">13163</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B85">
+        <is>
+          <t xml:space="preserve">Jefferson, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C85">
+        <v>6</v>
+      </c>
+      <c s="7" r="D85">
+        <v>0.0440037549870922</v>
+      </c>
+      <c s="7" r="E85">
+        <v>0.0683492094667583</v>
+      </c>
+      <c s="7" r="F85">
+        <v>0.0623666343355965</v>
+      </c>
+      <c s="7" r="G85">
+        <v>0.0912121492730808</v>
+      </c>
+      <c s="3" t="str" r="H85"/>
+      <c s="7" r="I85">
+        <v>0.0865757876681412</v>
+      </c>
+      <c s="7" r="J85">
+        <v>0.111090435429847</v>
+      </c>
+    </row>
+    <row r="86" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A86">
+        <is>
+          <t xml:space="preserve">13165</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B86">
+        <is>
+          <t xml:space="preserve">Jenkins, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C86">
+        <v>6</v>
+      </c>
+      <c s="7" r="D86">
+        <v>0.0453801169590643</v>
+      </c>
+      <c s="7" r="E86">
+        <v>0.069828990228013</v>
+      </c>
+      <c s="7" r="F86">
+        <v>0.0768031189083821</v>
+      </c>
+      <c s="7" r="G86">
+        <v>0.108153701968135</v>
+      </c>
+      <c s="3" t="str" r="H86"/>
+      <c s="7" r="I86">
+        <v>0.137893196781273</v>
+      </c>
+      <c s="7" r="J86">
+        <v>0.0803657362848893</v>
+      </c>
+    </row>
+    <row r="87" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A87">
+        <is>
+          <t xml:space="preserve">13167</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B87">
+        <is>
+          <t xml:space="preserve">Johnson, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C87">
+        <v>7</v>
+      </c>
+      <c s="7" r="D87">
+        <v>0.0351178781925344</v>
+      </c>
+      <c s="7" r="E87">
+        <v>0.0617209489344592</v>
+      </c>
+      <c s="7" r="F87">
+        <v>0.0489969135802469</v>
+      </c>
+      <c s="7" r="G87">
+        <v>0.0776027660391856</v>
+      </c>
+      <c s="3" t="str" r="H87"/>
+      <c s="7" r="I87">
+        <v>0.118592964824121</v>
+      </c>
+      <c s="7" r="J87">
+        <v>0.0908010105513449</v>
+      </c>
+    </row>
+    <row r="88" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A88">
+        <is>
+          <t xml:space="preserve">13169</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B88">
+        <is>
+          <t xml:space="preserve">Jones, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C88">
+        <v>3</v>
+      </c>
+      <c s="7" r="D88">
+        <v>0.0498179410791129</v>
+      </c>
+      <c s="7" r="E88">
+        <v>0.105605979711692</v>
+      </c>
+      <c s="7" r="F88">
+        <v>0.119631901840491</v>
+      </c>
+      <c s="7" r="G88">
+        <v>0.150165767405578</v>
+      </c>
+      <c s="3" t="str" r="H88"/>
+      <c s="7" r="I88">
+        <v>0.193577163247101</v>
+      </c>
+      <c s="7" r="J88">
+        <v>0.177217141095468</v>
+      </c>
+    </row>
+    <row r="89" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A89">
+        <is>
+          <t xml:space="preserve">13171</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B89">
+        <is>
+          <t xml:space="preserve">Lamar, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C89">
+        <v>1</v>
+      </c>
+      <c s="7" r="D89">
+        <v>0.0574084199015856</v>
+      </c>
+      <c s="7" r="E89">
+        <v>0.0800850460666194</v>
+      </c>
+      <c s="7" r="F89">
+        <v>0.100453820679504</v>
+      </c>
+      <c s="7" r="G89">
+        <v>0.11254522342818</v>
+      </c>
+      <c s="3" t="str" r="H89"/>
+      <c s="7" r="I89">
+        <v>0.126535836177474</v>
+      </c>
+      <c s="7" r="J89">
+        <v>0.181885488647581</v>
+      </c>
+    </row>
+    <row r="90" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A90">
+        <is>
+          <t xml:space="preserve">13173</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B90">
+        <is>
+          <t xml:space="preserve">Lanier, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C90">
+        <v>3</v>
+      </c>
+      <c s="7" r="D90">
+        <v>0.0398736675878405</v>
+      </c>
+      <c s="7" r="E90">
+        <v>0.0528227137669198</v>
+      </c>
+      <c s="7" r="F90">
+        <v>0.0537214885954382</v>
+      </c>
+      <c s="7" r="G90">
+        <v>0.0878092266547805</v>
+      </c>
+      <c s="3" t="str" r="H90"/>
+      <c s="7" r="I90">
+        <v>0.128135916163862</v>
+      </c>
+      <c s="7" r="J90">
+        <v>0.17299894879111</v>
+      </c>
+    </row>
+    <row r="91" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A91">
+        <is>
+          <t xml:space="preserve">13175</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B91">
+        <is>
+          <t xml:space="preserve">Laurens, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C91">
+        <v>5</v>
+      </c>
+      <c s="7" r="D91">
+        <v>0.0509568438183961</v>
+      </c>
+      <c s="7" r="E91">
+        <v>0.0980786312000374</v>
+      </c>
+      <c s="7" r="F91">
+        <v>0.11989264540939</v>
+      </c>
+      <c s="7" r="G91">
+        <v>0.144484848484848</v>
+      </c>
+      <c s="3" t="str" r="H91"/>
+      <c s="7" r="I91">
+        <v>0.155049741846115</v>
+      </c>
+      <c s="7" r="J91">
+        <v>0.166717177839738</v>
+      </c>
+    </row>
+    <row r="92" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A92">
+        <is>
+          <t xml:space="preserve">13177</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B92">
+        <is>
+          <t xml:space="preserve">Lee, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C92">
+        <v>3</v>
+      </c>
+      <c s="7" r="D92">
+        <v>0.0570890840652447</v>
+      </c>
+      <c s="7" r="E92">
+        <v>0.0930307419925962</v>
+      </c>
+      <c s="7" r="F92">
+        <v>0.136953083816552</v>
+      </c>
+      <c s="7" r="G92">
+        <v>0.169592976855547</v>
+      </c>
+      <c s="3" t="str" r="H92"/>
+      <c s="7" r="I92">
+        <v>0.191489361702128</v>
+      </c>
+      <c s="7" r="J92">
+        <v>0.307447157519801</v>
+      </c>
+    </row>
+    <row r="93" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A93">
+        <is>
+          <t xml:space="preserve">13179</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B93">
+        <is>
+          <t xml:space="preserve">Liberty, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C93">
+        <v>3</v>
+      </c>
+      <c s="7" r="D93">
+        <v>0.0908956547443098</v>
+      </c>
+      <c s="7" r="E93">
+        <v>0.123448323160277</v>
+      </c>
+      <c s="7" r="F93">
+        <v>0.133947037592765</v>
+      </c>
+      <c s="7" r="G93">
+        <v>0.145111536838004</v>
+      </c>
+      <c s="3" t="str" r="H93"/>
+      <c s="7" r="I93">
+        <v>0.176677950927454</v>
+      </c>
+      <c s="7" r="J93">
+        <v>0.196890776504528</v>
+      </c>
+    </row>
+    <row r="94" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A94">
+        <is>
+          <t xml:space="preserve">13181</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B94">
+        <is>
+          <t xml:space="preserve">Lincoln, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C94">
+        <v>2</v>
+      </c>
+      <c s="7" r="D94">
+        <v>0.0433083686095734</v>
+      </c>
+      <c s="7" r="E94">
+        <v>0.0725535760392461</v>
+      </c>
+      <c s="7" r="F94">
+        <v>0.0815468684321143</v>
+      </c>
+      <c s="7" r="G94">
+        <v>0.100684090510437</v>
+      </c>
+      <c s="3" t="str" r="H94"/>
+      <c s="7" r="I94">
+        <v>0.113603473227207</v>
+      </c>
+      <c s="7" r="J94">
+        <v>0.133368569415081</v>
+      </c>
+    </row>
+    <row r="95" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A95">
+        <is>
+          <t xml:space="preserve">13183</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B95">
+        <is>
+          <t xml:space="preserve">Long, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C95">
+        <v>3</v>
+      </c>
+      <c s="7" r="D95">
+        <v>0.0390792291220557</v>
+      </c>
+      <c s="7" r="E95">
+        <v>0.0634851138353765</v>
+      </c>
+      <c s="7" r="F95">
+        <v>0.0522720522720523</v>
+      </c>
+      <c s="7" r="G95">
+        <v>0.0584403835715578</v>
+      </c>
+      <c s="3" t="str" r="H95"/>
+      <c s="7" r="I95">
+        <v>0.117647058823529</v>
+      </c>
+      <c s="7" r="J95">
+        <v>0.146576387564372</v>
+      </c>
+    </row>
+    <row r="96" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A96">
+        <is>
+          <t xml:space="preserve">13185</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B96">
+        <is>
+          <t xml:space="preserve">Lowndes, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C96">
+        <v>3</v>
+      </c>
+      <c s="7" r="D96">
+        <v>0.100805214723926</v>
+      </c>
+      <c s="7" r="E96">
+        <v>0.13154782020953</v>
+      </c>
+      <c s="7" r="F96">
+        <v>0.163435920992191</v>
+      </c>
+      <c s="7" r="G96">
+        <v>0.196636982133968</v>
+      </c>
+      <c s="3" t="str" r="H96"/>
+      <c s="7" r="I96">
+        <v>0.222847986800774</v>
+      </c>
+      <c s="7" r="J96">
+        <v>0.26437642180436</v>
+      </c>
+    </row>
+    <row r="97" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A97">
+        <is>
+          <t xml:space="preserve">13187</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B97">
+        <is>
+          <t xml:space="preserve">Lumpkin, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C97">
+        <v>6</v>
+      </c>
+      <c s="7" r="D97">
+        <v>0.0524290524290524</v>
+      </c>
+      <c s="7" r="E97">
+        <v>0.0983692793266702</v>
+      </c>
+      <c s="7" r="F97">
+        <v>0.111381548446917</v>
+      </c>
+      <c s="7" r="G97">
+        <v>0.176391630477694</v>
+      </c>
+      <c s="3" t="str" r="H97"/>
+      <c s="7" r="I97">
+        <v>0.227757819103973</v>
+      </c>
+      <c s="7" r="J97">
+        <v>0.324640588431963</v>
+      </c>
+    </row>
+    <row r="98" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A98">
+        <is>
+          <t xml:space="preserve">13189</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B98">
+        <is>
+          <t xml:space="preserve">McDuffie, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C98">
+        <v>2</v>
+      </c>
+      <c s="7" r="D98">
+        <v>0.0439503619441572</v>
+      </c>
+      <c s="7" r="E98">
+        <v>0.0824297092409558</v>
+      </c>
+      <c s="7" r="F98">
+        <v>0.103545984455959</v>
+      </c>
+      <c s="7" r="G98">
+        <v>0.1167980955215</v>
+      </c>
+      <c s="3" t="str" r="H98"/>
+      <c s="7" r="I98">
+        <v>0.132943084843783</v>
+      </c>
+      <c s="7" r="J98">
+        <v>0.15973218555715</v>
+      </c>
+    </row>
+    <row r="99" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A99">
+        <is>
+          <t xml:space="preserve">13191</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B99">
+        <is>
+          <t xml:space="preserve">McIntosh, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C99">
+        <v>3</v>
+      </c>
+      <c s="7" r="D99">
+        <v>0.0562087754516777</v>
+      </c>
+      <c s="7" r="E99">
+        <v>0.0604661897069005</v>
+      </c>
+      <c s="7" r="F99">
+        <v>0.0869806094182825</v>
+      </c>
+      <c s="7" r="G99">
+        <v>0.111493264545715</v>
+      </c>
+      <c s="3" t="str" r="H99"/>
+      <c s="7" r="I99">
+        <v>0.146246764452114</v>
+      </c>
+      <c s="7" r="J99">
+        <v>0.180737750868931</v>
+      </c>
+    </row>
+    <row r="100" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A100">
+        <is>
+          <t xml:space="preserve">13193</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B100">
+        <is>
+          <t xml:space="preserve">Macon, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C100">
+        <v>6</v>
+      </c>
+      <c s="7" r="D100">
+        <v>0.0769230769230769</v>
+      </c>
+      <c s="7" r="E100">
+        <v>0.0796728663764675</v>
+      </c>
+      <c s="7" r="F100">
+        <v>0.10087832601395</v>
+      </c>
+      <c s="7" r="G100">
+        <v>0.0999547715965626</v>
+      </c>
+      <c s="3" t="str" r="H100"/>
+      <c s="7" r="I100">
+        <v>0.0983892479737355</v>
+      </c>
+      <c s="7" r="J100">
+        <v>0.100902934537246</v>
+      </c>
+    </row>
+    <row r="101" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A101">
+        <is>
+          <t xml:space="preserve">13195</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B101">
+        <is>
+          <t xml:space="preserve">Madison, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C101">
+        <v>3</v>
+      </c>
+      <c s="7" r="D101">
+        <v>0.0267869535045108</v>
+      </c>
+      <c s="7" r="E101">
+        <v>0.0749268292682927</v>
+      </c>
+      <c s="7" r="F101">
+        <v>0.0973597359735974</v>
+      </c>
+      <c s="7" r="G101">
+        <v>0.108939043895504</v>
+      </c>
+      <c s="3" t="str" r="H101"/>
+      <c s="7" r="I101">
+        <v>0.134053939490277</v>
+      </c>
+      <c s="7" r="J101">
+        <v>0.203544549647973</v>
+      </c>
+    </row>
+    <row r="102" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A102">
+        <is>
+          <t xml:space="preserve">13197</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B102">
+        <is>
+          <t xml:space="preserve">Marion, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C102">
+        <v>2</v>
+      </c>
+      <c s="7" r="D102">
+        <v>0.0414342629482072</v>
+      </c>
+      <c s="7" r="E102">
+        <v>0.0611683848797251</v>
+      </c>
+      <c s="7" r="F102">
+        <v>0.0461136890951276</v>
+      </c>
+      <c s="7" r="G102">
+        <v>0.0892494929006085</v>
+      </c>
+      <c s="3" t="str" r="H102"/>
+      <c s="7" r="I102">
+        <v>0.0839904010970175</v>
+      </c>
+      <c s="7" r="J102">
+        <v>0.142988084326306</v>
+      </c>
+    </row>
+    <row r="103" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A103">
+        <is>
+          <t xml:space="preserve">13199</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B103">
+        <is>
+          <t xml:space="preserve">Meriwether, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C103">
+        <v>1</v>
+      </c>
+      <c s="7" r="D103">
+        <v>0.0641139804096171</v>
+      </c>
+      <c s="7" r="E103">
+        <v>0.0710074123989218</v>
+      </c>
+      <c s="7" r="F103">
+        <v>0.0666617776474039</v>
+      </c>
+      <c s="7" r="G103">
+        <v>0.108008867950672</v>
+      </c>
+      <c s="3" t="str" r="H103"/>
+      <c s="7" r="I103">
+        <v>0.0983650495845618</v>
+      </c>
+      <c s="7" r="J103">
+        <v>0.118432769367765</v>
+      </c>
+    </row>
+    <row r="104" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A104">
+        <is>
+          <t xml:space="preserve">13201</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B104">
+        <is>
+          <t xml:space="preserve">Miller, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C104">
+        <v>8</v>
+      </c>
+      <c s="7" r="D104">
+        <v>0.0535050071530758</v>
+      </c>
+      <c s="7" r="E104">
+        <v>0.071</v>
+      </c>
+      <c s="7" r="F104">
+        <v>0.0824768112308849</v>
+      </c>
+      <c s="7" r="G104">
+        <v>0.112590516234525</v>
+      </c>
+      <c s="3" t="str" r="H104"/>
+      <c s="7" r="I104">
+        <v>0.105608157319738</v>
+      </c>
+      <c s="7" r="J104">
+        <v>0.197770237518177</v>
+      </c>
+    </row>
+    <row r="105" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A105">
+        <is>
+          <t xml:space="preserve">13205</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B105">
+        <is>
+          <t xml:space="preserve">Mitchell, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C105">
+        <v>6</v>
+      </c>
+      <c s="7" r="D105">
+        <v>0.0462610899873257</v>
+      </c>
+      <c s="7" r="E105">
+        <v>0.0745732255166217</v>
+      </c>
+      <c s="7" r="F105">
+        <v>0.0777926645453023</v>
+      </c>
+      <c s="7" r="G105">
+        <v>0.091170184344109</v>
+      </c>
+      <c s="3" t="str" r="H105"/>
+      <c s="7" r="I105">
+        <v>0.0957637997432606</v>
+      </c>
+      <c s="7" r="J105">
+        <v>0.117112937433722</v>
+      </c>
+    </row>
+    <row r="106" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A106">
+        <is>
+          <t xml:space="preserve">13207</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B106">
+        <is>
+          <t xml:space="preserve">Monroe, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C106">
+        <v>3</v>
+      </c>
+      <c s="7" r="D106">
+        <v>0.0654643823264202</v>
+      </c>
+      <c s="7" r="E106">
+        <v>0.0939605247606666</v>
+      </c>
+      <c s="7" r="F106">
+        <v>0.129271228817483</v>
+      </c>
+      <c s="7" r="G106">
+        <v>0.17116672541417</v>
+      </c>
+      <c s="3" t="str" r="H106"/>
+      <c s="7" r="I106">
+        <v>0.187420829432175</v>
+      </c>
+      <c s="7" r="J106">
+        <v>0.288157486824429</v>
+      </c>
+    </row>
+    <row r="107" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A107">
+        <is>
+          <t xml:space="preserve">13209</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B107">
+        <is>
+          <t xml:space="preserve">Montgomery, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C107">
+        <v>9</v>
+      </c>
+      <c s="7" r="D107">
+        <v>0.0412858493539237</v>
+      </c>
+      <c s="7" r="E107">
+        <v>0.0711991434689507</v>
+      </c>
+      <c s="7" r="F107">
+        <v>0.100604089219331</v>
+      </c>
+      <c s="7" r="G107">
+        <v>0.13469068128426</v>
+      </c>
+      <c s="3" t="str" r="H107"/>
+      <c s="7" r="I107">
+        <v>0.156496400411382</v>
+      </c>
+      <c s="7" r="J107">
+        <v>0.17765440666204</v>
+      </c>
+    </row>
+    <row r="108" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A108">
+        <is>
+          <t xml:space="preserve">13211</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B108">
+        <is>
+          <t xml:space="preserve">Morgan, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C108">
+        <v>1</v>
+      </c>
+      <c s="7" r="D108">
+        <v>0.0683709869203329</v>
+      </c>
+      <c s="7" r="E108">
+        <v>0.0958840037418148</v>
+      </c>
+      <c s="7" r="F108">
+        <v>0.110482978984884</v>
+      </c>
+      <c s="7" r="G108">
+        <v>0.186666666666667</v>
+      </c>
+      <c s="3" t="str" r="H108"/>
+      <c s="7" r="I108">
+        <v>0.222964713552278</v>
+      </c>
+      <c s="7" r="J108">
+        <v>0.271621816088646</v>
+      </c>
+    </row>
+    <row r="109" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A109">
+        <is>
+          <t xml:space="preserve">13213</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B109">
+        <is>
+          <t xml:space="preserve">Murray, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C109">
+        <v>3</v>
+      </c>
+      <c s="7" r="D109">
+        <v>0.0325829383886256</v>
+      </c>
+      <c s="7" r="E109">
+        <v>0.0509822263797942</v>
+      </c>
+      <c s="7" r="F109">
+        <v>0.0549387806889551</v>
+      </c>
+      <c s="7" r="G109">
+        <v>0.0719203613559619</v>
+      </c>
+      <c s="3" t="str" r="H109"/>
+      <c s="7" r="I109">
+        <v>0.0832746065304205</v>
+      </c>
+      <c s="7" r="J109">
+        <v>0.102381398837427</v>
+      </c>
+    </row>
+    <row r="110" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A110">
+        <is>
+          <t xml:space="preserve">13215</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B110">
+        <is>
+          <t xml:space="preserve">Muscogee, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C110">
+        <v>2</v>
+      </c>
+      <c s="7" r="D110">
+        <v>0.0995271665424512</v>
+      </c>
+      <c s="7" r="E110">
+        <v>0.128876805799883</v>
+      </c>
+      <c s="7" r="F110">
+        <v>0.166070084622868</v>
+      </c>
+      <c s="7" r="G110">
+        <v>0.203253101845763</v>
+      </c>
+      <c s="3" t="str" r="H110"/>
+      <c s="7" r="I110">
+        <v>0.221033089439773</v>
+      </c>
+      <c s="7" r="J110">
+        <v>0.276080881636812</v>
+      </c>
+    </row>
+    <row r="111" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A111">
+        <is>
+          <t xml:space="preserve">13217</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B111">
+        <is>
+          <t xml:space="preserve">Newton, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C111">
+        <v>1</v>
+      </c>
+      <c s="7" r="D111">
+        <v>0.0464959568733154</v>
+      </c>
+      <c s="7" r="E111">
+        <v>0.0864941324392288</v>
+      </c>
+      <c s="7" r="F111">
+        <v>0.0950700035695871</v>
+      </c>
+      <c s="7" r="G111">
+        <v>0.145411812793787</v>
+      </c>
+      <c s="3" t="str" r="H111"/>
+      <c s="7" r="I111">
+        <v>0.190742820471683</v>
+      </c>
+      <c s="7" r="J111">
+        <v>0.216539884151022</v>
+      </c>
+    </row>
+    <row r="112" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A112">
+        <is>
+          <t xml:space="preserve">13219</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B112">
+        <is>
+          <t xml:space="preserve">Oconee, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C112">
+        <v>3</v>
+      </c>
+      <c s="7" r="D112">
+        <v>0.0907354345749761</v>
+      </c>
+      <c s="7" r="E112">
+        <v>0.211625282167043</v>
+      </c>
+      <c s="7" r="F112">
+        <v>0.284309261451598</v>
+      </c>
+      <c s="7" r="G112">
+        <v>0.397874924104432</v>
+      </c>
+      <c s="3" t="str" r="H112"/>
+      <c s="7" r="I112">
+        <v>0.440568047337278</v>
+      </c>
+      <c s="7" r="J112">
+        <v>0.515768133353356</v>
+      </c>
+    </row>
+    <row r="113" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A113">
+        <is>
+          <t xml:space="preserve">13221</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B113">
+        <is>
+          <t xml:space="preserve">Oglethorpe, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C113">
+        <v>3</v>
+      </c>
+      <c s="7" r="D113">
+        <v>0.032734432685208</v>
+      </c>
+      <c s="7" r="E113">
+        <v>0.0947347817576825</v>
+      </c>
+      <c s="7" r="F113">
+        <v>0.128422738190552</v>
+      </c>
+      <c s="7" r="G113">
+        <v>0.156235182550972</v>
+      </c>
+      <c s="3" t="str" r="H113"/>
+      <c s="7" r="I113">
+        <v>0.18154643284177</v>
+      </c>
+      <c s="7" r="J113">
+        <v>0.212665769748222</v>
+      </c>
+    </row>
+    <row r="114" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A114">
+        <is>
+          <t xml:space="preserve">13223</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B114">
+        <is>
+          <t xml:space="preserve">Paulding, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C114">
+        <v>1</v>
+      </c>
+      <c s="7" r="D114">
+        <v>0.020824247710423</v>
+      </c>
+      <c s="7" r="E114">
+        <v>0.0429577946507969</v>
+      </c>
+      <c s="7" r="F114">
+        <v>0.0760334547200768</v>
+      </c>
+      <c s="7" r="G114">
+        <v>0.152076474554758</v>
+      </c>
+      <c s="3" t="str" r="H114"/>
+      <c s="7" r="I114">
+        <v>0.230290054776736</v>
+      </c>
+      <c s="7" r="J114">
+        <v>0.258859699184447</v>
+      </c>
+    </row>
+    <row r="115" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A115">
+        <is>
+          <t xml:space="preserve">13225</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B115">
+        <is>
+          <t xml:space="preserve">Peach, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C115">
+        <v>3</v>
+      </c>
+      <c s="7" r="D115">
+        <v>0.109879451295552</v>
+      </c>
+      <c s="7" r="E115">
+        <v>0.143538293433992</v>
+      </c>
+      <c s="7" r="F115">
+        <v>0.151763069622842</v>
+      </c>
+      <c s="7" r="G115">
+        <v>0.167627178939879</v>
+      </c>
+      <c s="3" t="str" r="H115"/>
+      <c s="7" r="I115">
+        <v>0.184237523384225</v>
+      </c>
+      <c s="7" r="J115">
+        <v>0.217379187336269</v>
+      </c>
+    </row>
+    <row r="116" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A116">
+        <is>
+          <t xml:space="preserve">13227</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B116">
+        <is>
+          <t xml:space="preserve">Pickens, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C116">
+        <v>1</v>
+      </c>
+      <c s="7" r="D116">
+        <v>0.0312261995430312</v>
+      </c>
+      <c s="7" r="E116">
+        <v>0.0686762405801223</v>
+      </c>
+      <c s="7" r="F116">
+        <v>0.0895697662004911</v>
+      </c>
+      <c s="7" r="G116">
+        <v>0.15622636753214</v>
+      </c>
+      <c s="3" t="str" r="H116"/>
+      <c s="7" r="I116">
+        <v>0.220411498894337</v>
+      </c>
+      <c s="7" r="J116">
+        <v>0.244732576985413</v>
+      </c>
+    </row>
+    <row r="117" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A117">
+        <is>
+          <t xml:space="preserve">13229</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B117">
+        <is>
+          <t xml:space="preserve">Pierce, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C117">
+        <v>6</v>
+      </c>
+      <c s="7" r="D117">
+        <v>0.0361224489795918</v>
+      </c>
+      <c s="7" r="E117">
+        <v>0.0685465726713664</v>
+      </c>
+      <c s="7" r="F117">
+        <v>0.0630292765545609</v>
+      </c>
+      <c s="7" r="G117">
+        <v>0.100681077879775</v>
+      </c>
+      <c s="3" t="str" r="H117"/>
+      <c s="7" r="I117">
+        <v>0.101223491027732</v>
+      </c>
+      <c s="7" r="J117">
+        <v>0.154500569692366</v>
+      </c>
+    </row>
+    <row r="118" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A118">
+        <is>
+          <t xml:space="preserve">13231</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B118">
+        <is>
+          <t xml:space="preserve">Pike, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C118">
+        <v>1</v>
+      </c>
+      <c s="7" r="D118">
+        <v>0.0405684754521964</v>
+      </c>
+      <c s="7" r="E118">
+        <v>0.0869731800766284</v>
+      </c>
+      <c s="7" r="F118">
+        <v>0.0925897396395008</v>
+      </c>
+      <c s="7" r="G118">
+        <v>0.140043020491339</v>
+      </c>
+      <c s="3" t="str" r="H118"/>
+      <c s="7" r="I118">
+        <v>0.16595270733379</v>
+      </c>
+      <c s="7" r="J118">
+        <v>0.20360824742268</v>
+      </c>
+    </row>
+    <row r="119" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A119">
+        <is>
+          <t xml:space="preserve">13233</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B119">
+        <is>
+          <t xml:space="preserve">Polk, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C119">
+        <v>4</v>
+      </c>
+      <c s="7" r="D119">
+        <v>0.0335513047729634</v>
+      </c>
+      <c s="7" r="E119">
+        <v>0.0569653299916458</v>
+      </c>
+      <c s="7" r="F119">
+        <v>0.0676287889402643</v>
+      </c>
+      <c s="7" r="G119">
+        <v>0.0799902845808201</v>
+      </c>
+      <c s="3" t="str" r="H119"/>
+      <c s="7" r="I119">
+        <v>0.114135140222097</v>
+      </c>
+      <c s="7" r="J119">
+        <v>0.131958908461891</v>
+      </c>
+    </row>
+    <row r="120" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A120">
+        <is>
+          <t xml:space="preserve">13235</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B120">
+        <is>
+          <t xml:space="preserve">Pulaski, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C120">
+        <v>3</v>
+      </c>
+      <c s="7" r="D120">
+        <v>0.0688259109311741</v>
+      </c>
+      <c s="7" r="E120">
+        <v>0.0857914015808753</v>
+      </c>
+      <c s="7" r="F120">
+        <v>0.107163545085924</v>
+      </c>
+      <c s="7" r="G120">
+        <v>0.128937160589604</v>
+      </c>
+      <c s="3" t="str" r="H120"/>
+      <c s="7" r="I120">
+        <v>0.077765237020316</v>
+      </c>
+      <c s="7" r="J120">
+        <v>0.125421443020904</v>
+      </c>
+    </row>
+    <row r="121" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A121">
+        <is>
+          <t xml:space="preserve">13237</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B121">
+        <is>
+          <t xml:space="preserve">Putnam, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C121">
+        <v>6</v>
+      </c>
+      <c s="7" r="D121">
+        <v>0.0750180331810531</v>
+      </c>
+      <c s="7" r="E121">
+        <v>0.0920767306088407</v>
+      </c>
+      <c s="7" r="F121">
+        <v>0.116552399608227</v>
+      </c>
+      <c s="7" r="G121">
+        <v>0.143995050653468</v>
+      </c>
+      <c s="3" t="str" r="H121"/>
+      <c s="7" r="I121">
+        <v>0.187875586079377</v>
+      </c>
+      <c s="7" r="J121">
+        <v>0.259086320040384</v>
+      </c>
+    </row>
+    <row r="122" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A122">
+        <is>
+          <t xml:space="preserve">13239</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B122">
+        <is>
+          <t xml:space="preserve">Quitman, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C122">
+        <v>9</v>
+      </c>
+      <c s="7" r="D122">
+        <v>0.0190045248868778</v>
+      </c>
+      <c s="7" r="E122">
+        <v>0.0655737704918033</v>
+      </c>
+      <c s="7" r="F122">
+        <v>0.0730337078651685</v>
+      </c>
+      <c s="7" r="G122">
+        <v>0.0614777213761985</v>
+      </c>
+      <c s="3" t="str" r="H122"/>
+      <c s="7" r="I122">
+        <v>0.0561660561660562</v>
+      </c>
+      <c s="7" r="J122">
+        <v>0.0907016543069025</v>
+      </c>
+    </row>
+    <row r="123" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A123">
+        <is>
+          <t xml:space="preserve">13241</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B123">
+        <is>
+          <t xml:space="preserve">Rabun, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C123">
+        <v>7</v>
+      </c>
+      <c s="7" r="D123">
+        <v>0.0719545550178834</v>
+      </c>
+      <c s="7" r="E123">
+        <v>0.114290016563771</v>
+      </c>
+      <c s="7" r="F123">
+        <v>0.11606371156933</v>
+      </c>
+      <c s="7" r="G123">
+        <v>0.176299765807963</v>
+      </c>
+      <c s="3" t="str" r="H123"/>
+      <c s="7" r="I123">
+        <v>0.258579881656805</v>
+      </c>
+      <c s="7" r="J123">
+        <v>0.261108926464805</v>
+      </c>
+    </row>
+    <row r="124" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A124">
+        <is>
+          <t xml:space="preserve">13243</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B124">
+        <is>
+          <t xml:space="preserve">Randolph, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C124">
+        <v>6</v>
+      </c>
+      <c s="7" r="D124">
+        <v>0.0357979970168336</v>
+      </c>
+      <c s="7" r="E124">
+        <v>0.066567219839642</v>
+      </c>
+      <c s="7" r="F124">
+        <v>0.060054404687173</v>
+      </c>
+      <c s="7" r="G124">
+        <v>0.0947104327827723</v>
+      </c>
+      <c s="3" t="str" r="H124"/>
+      <c s="7" r="I124">
+        <v>0.143788343558282</v>
+      </c>
+      <c s="7" r="J124">
+        <v>0.123745038524399</v>
+      </c>
+    </row>
+    <row r="125" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A125">
+        <is>
+          <t xml:space="preserve">13245</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B125">
+        <is>
+          <t xml:space="preserve">Richmond, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C125">
+        <v>2</v>
+      </c>
+      <c s="7" r="D125">
+        <v>0.108513970597913</v>
+      </c>
+      <c s="7" r="E125">
+        <v>0.148278335724534</v>
+      </c>
+      <c s="7" r="F125">
+        <v>0.172543377801029</v>
+      </c>
+      <c s="7" r="G125">
+        <v>0.186871900287131</v>
+      </c>
+      <c s="3" t="str" r="H125"/>
+      <c s="7" r="I125">
+        <v>0.198448368961027</v>
+      </c>
+      <c s="7" r="J125">
+        <v>0.225918261769271</v>
+      </c>
+    </row>
+    <row r="126" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A126">
+        <is>
+          <t xml:space="preserve">13247</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B126">
+        <is>
+          <t xml:space="preserve">Rockdale, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C126">
+        <v>1</v>
+      </c>
+      <c s="7" r="D126">
+        <v>0.052620228596075</v>
+      </c>
+      <c s="7" r="E126">
+        <v>0.126022913256956</v>
+      </c>
+      <c s="7" r="F126">
+        <v>0.181210257635012</v>
+      </c>
+      <c s="7" r="G126">
+        <v>0.233535741393937</v>
+      </c>
+      <c s="3" t="str" r="H126"/>
+      <c s="7" r="I126">
+        <v>0.250352906667644</v>
+      </c>
+      <c s="7" r="J126">
+        <v>0.279189294026377</v>
+      </c>
+    </row>
+    <row r="127" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A127">
+        <is>
+          <t xml:space="preserve">13249</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B127">
+        <is>
+          <t xml:space="preserve">Schley, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C127">
+        <v>8</v>
+      </c>
+      <c s="7" r="D127">
+        <v>0.0328820116054159</v>
+      </c>
+      <c s="7" r="E127">
+        <v>0.083778014941302</v>
+      </c>
+      <c s="7" r="F127">
+        <v>0.0800925925925926</v>
+      </c>
+      <c s="7" r="G127">
+        <v>0.137478849407783</v>
+      </c>
+      <c s="3" t="str" r="H127"/>
+      <c s="7" r="I127">
+        <v>0.134366925064599</v>
+      </c>
+      <c s="7" r="J127">
+        <v>0.153034300791557</v>
+      </c>
+    </row>
+    <row r="128" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A128">
+        <is>
+          <t xml:space="preserve">13251</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B128">
+        <is>
+          <t xml:space="preserve">Screven, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C128">
+        <v>6</v>
+      </c>
+      <c s="7" r="D128">
+        <v>0.0496903790968132</v>
+      </c>
+      <c s="7" r="E128">
+        <v>0.0740092511563945</v>
+      </c>
+      <c s="7" r="F128">
+        <v>0.0855614973262032</v>
+      </c>
+      <c s="7" r="G128">
+        <v>0.102116675271038</v>
+      </c>
+      <c s="3" t="str" r="H128"/>
+      <c s="7" r="I128">
+        <v>0.116971279373368</v>
+      </c>
+      <c s="7" r="J128">
+        <v>0.146619929894842</v>
+      </c>
+    </row>
+    <row r="129" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A129">
+        <is>
+          <t xml:space="preserve">13253</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B129">
+        <is>
+          <t xml:space="preserve">Seminole, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C129">
+        <v>6</v>
+      </c>
+      <c s="7" r="D129">
+        <v>0.0519410977242303</v>
+      </c>
+      <c s="7" r="E129">
+        <v>0.0725931677018634</v>
+      </c>
+      <c s="7" r="F129">
+        <v>0.0782331027142097</v>
+      </c>
+      <c s="7" r="G129">
+        <v>0.0858684985279686</v>
+      </c>
+      <c s="3" t="str" r="H129"/>
+      <c s="7" r="I129">
+        <v>0.119174434087883</v>
+      </c>
+      <c s="7" r="J129">
+        <v>0.15818289434744</v>
+      </c>
+    </row>
+    <row r="130" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A130">
+        <is>
+          <t xml:space="preserve">13255</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B130">
+        <is>
+          <t xml:space="preserve">Spalding, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C130">
+        <v>1</v>
+      </c>
+      <c s="7" r="D130">
+        <v>0.0600920202630478</v>
+      </c>
+      <c s="7" r="E130">
+        <v>0.0902461257976299</v>
+      </c>
+      <c s="7" r="F130">
+        <v>0.110932810317673</v>
+      </c>
+      <c s="7" r="G130">
+        <v>0.124710320668283</v>
+      </c>
+      <c s="3" t="str" r="H130"/>
+      <c s="7" r="I130">
+        <v>0.155965267039372</v>
+      </c>
+      <c s="7" r="J130">
+        <v>0.185973413659878</v>
+      </c>
+    </row>
+    <row r="131" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A131">
+        <is>
+          <t xml:space="preserve">13257</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B131">
+        <is>
+          <t xml:space="preserve">Stephens, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C131">
+        <v>7</v>
+      </c>
+      <c s="7" r="D131">
+        <v>0.0567912087912088</v>
+      </c>
+      <c s="7" r="E131">
+        <v>0.0987045033929673</v>
+      </c>
+      <c s="7" r="F131">
+        <v>0.131419436488377</v>
+      </c>
+      <c s="7" r="G131">
+        <v>0.140838351917</v>
+      </c>
+      <c s="3" t="str" r="H131"/>
+      <c s="7" r="I131">
+        <v>0.146581491712707</v>
+      </c>
+      <c s="7" r="J131">
+        <v>0.1631494848201</v>
+      </c>
+    </row>
+    <row r="132" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A132">
+        <is>
+          <t xml:space="preserve">13259</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B132">
+        <is>
+          <t xml:space="preserve">Stewart, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C132">
+        <v>8</v>
+      </c>
+      <c s="7" r="D132">
+        <v>0.0487274984481688</v>
+      </c>
+      <c s="7" r="E132">
+        <v>0.0770171149144254</v>
+      </c>
+      <c s="7" r="F132">
+        <v>0.0797872340425532</v>
+      </c>
+      <c s="7" r="G132">
+        <v>0.0929899856938484</v>
+      </c>
+      <c s="3" t="str" r="H132"/>
+      <c s="7" r="I132">
+        <v>0.0828677839851024</v>
+      </c>
+      <c s="7" r="J132">
+        <v>0.154418604651163</v>
+      </c>
+    </row>
+    <row r="133" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A133">
+        <is>
+          <t xml:space="preserve">13261</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B133">
+        <is>
+          <t xml:space="preserve">Sumter, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C133">
+        <v>6</v>
+      </c>
+      <c s="7" r="D133">
+        <v>0.0755511328842621</v>
+      </c>
+      <c s="7" r="E133">
+        <v>0.139871179590806</v>
+      </c>
+      <c s="7" r="F133">
+        <v>0.158855340243353</v>
+      </c>
+      <c s="7" r="G133">
+        <v>0.193063872255489</v>
+      </c>
+      <c s="3" t="str" r="H133"/>
+      <c s="7" r="I133">
+        <v>0.197704145571207</v>
+      </c>
+      <c s="7" r="J133">
+        <v>0.194212013004317</v>
+      </c>
+    </row>
+    <row r="134" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A134">
+        <is>
+          <t xml:space="preserve">13263</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B134">
+        <is>
+          <t xml:space="preserve">Talbot, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C134">
+        <v>8</v>
+      </c>
+      <c s="7" r="D134">
+        <v>0.067242442936459</v>
+      </c>
+      <c s="7" r="E134">
+        <v>0.0798376184032476</v>
+      </c>
+      <c s="7" r="F134">
+        <v>0.0708946226187605</v>
+      </c>
+      <c s="7" r="G134">
+        <v>0.0788099023393141</v>
+      </c>
+      <c s="3" t="str" r="H134"/>
+      <c s="7" r="I134">
+        <v>0.121024370095002</v>
+      </c>
+      <c s="7" r="J134">
+        <v>0.141005230839209</v>
+      </c>
+    </row>
+    <row r="135" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A135">
+        <is>
+          <t xml:space="preserve">13265</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B135">
+        <is>
+          <t xml:space="preserve">Taliaferro, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C135">
+        <v>8</v>
+      </c>
+      <c s="7" r="D135">
+        <v>0.036869826937547</v>
+      </c>
+      <c s="7" r="E135">
+        <v>0.054416403785489</v>
+      </c>
+      <c s="7" r="F135">
+        <v>0.0564648117839607</v>
+      </c>
+      <c s="7" r="G135">
+        <v>0.0836820083682008</v>
+      </c>
+      <c s="3" t="str" r="H135"/>
+      <c s="7" r="I135">
+        <v>0.105308219178082</v>
+      </c>
+      <c s="7" r="J135">
+        <v>0.0857142857142857</v>
+      </c>
+    </row>
+    <row r="136" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A136">
+        <is>
+          <t xml:space="preserve">13267</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B136">
+        <is>
+          <t xml:space="preserve">Tattnall, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C136">
+        <v>6</v>
+      </c>
+      <c s="7" r="D136">
+        <v>0.0260042283298097</v>
+      </c>
+      <c s="7" r="E136">
+        <v>0.0516845680712384</v>
+      </c>
+      <c s="7" r="F136">
+        <v>0.0647846233053029</v>
+      </c>
+      <c s="7" r="G136">
+        <v>0.0789079520697168</v>
+      </c>
+      <c s="3" t="str" r="H136"/>
+      <c s="7" r="I136">
+        <v>0.11296874080179</v>
+      </c>
+      <c s="7" r="J136">
+        <v>0.144687171235844</v>
+      </c>
+    </row>
+    <row r="137" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A137">
+        <is>
+          <t xml:space="preserve">13269</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B137">
+        <is>
+          <t xml:space="preserve">Taylor, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C137">
+        <v>8</v>
+      </c>
+      <c s="7" r="D137">
+        <v>0.0439695406534021</v>
+      </c>
+      <c s="7" r="E137">
+        <v>0.073503127792672</v>
+      </c>
+      <c s="7" r="F137">
+        <v>0.0709705002137666</v>
+      </c>
+      <c s="7" r="G137">
+        <v>0.0850911691097605</v>
+      </c>
+      <c s="3" t="str" r="H137"/>
+      <c s="7" r="I137">
+        <v>0.0875251509054326</v>
+      </c>
+      <c s="7" r="J137">
+        <v>0.154778887303852</v>
+      </c>
+    </row>
+    <row r="138" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A138">
+        <is>
+          <t xml:space="preserve">13271</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B138">
+        <is>
+          <t xml:space="preserve">Telfair, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C138">
+        <v>7</v>
+      </c>
+      <c s="7" r="D138">
+        <v>0.0513118565260711</v>
+      </c>
+      <c s="7" r="E138">
+        <v>0.0808504267105854</v>
+      </c>
+      <c s="7" r="F138">
+        <v>0.0860428794547778</v>
+      </c>
+      <c s="7" r="G138">
+        <v>0.0833544143688338</v>
+      </c>
+      <c s="3" t="str" r="H138"/>
+      <c s="7" r="I138">
+        <v>0.123294636047793</v>
+      </c>
+      <c s="7" r="J138">
+        <v>0.0711370905481416</v>
+      </c>
+    </row>
+    <row r="139" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A139">
+        <is>
+          <t xml:space="preserve">13273</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B139">
+        <is>
+          <t xml:space="preserve">Terrell, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C139">
+        <v>3</v>
+      </c>
+      <c s="7" r="D139">
+        <v>0.0475858462611121</v>
+      </c>
+      <c s="7" r="E139">
+        <v>0.0897534078725685</v>
+      </c>
+      <c s="7" r="F139">
+        <v>0.0920770877944325</v>
+      </c>
+      <c s="7" r="G139">
+        <v>0.106809078771696</v>
+      </c>
+      <c s="3" t="str" r="H139"/>
+      <c s="7" r="I139">
+        <v>0.0834155972359329</v>
+      </c>
+      <c s="7" r="J139">
+        <v>0.106864020819779</v>
+      </c>
+    </row>
+    <row r="140" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A140">
+        <is>
+          <t xml:space="preserve">13275</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B140">
+        <is>
+          <t xml:space="preserve">Thomas, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C140">
+        <v>4</v>
+      </c>
+      <c s="7" r="D140">
+        <v>0.0670795199210829</v>
+      </c>
+      <c s="7" r="E140">
+        <v>0.111728995782937</v>
+      </c>
+      <c s="7" r="F140">
+        <v>0.133737974317684</v>
+      </c>
+      <c s="7" r="G140">
+        <v>0.167816008954038</v>
+      </c>
+      <c s="3" t="str" r="H140"/>
+      <c s="7" r="I140">
+        <v>0.166649917931196</v>
+      </c>
+      <c s="7" r="J140">
+        <v>0.253581478639038</v>
+      </c>
+    </row>
+    <row r="141" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A141">
+        <is>
+          <t xml:space="preserve">13277</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B141">
+        <is>
+          <t xml:space="preserve">Tift, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C141">
+        <v>5</v>
+      </c>
+      <c s="7" r="D141">
+        <v>0.080534408120615</v>
+      </c>
+      <c s="7" r="E141">
+        <v>0.115336230558097</v>
+      </c>
+      <c s="7" r="F141">
+        <v>0.139949109414758</v>
+      </c>
+      <c s="7" r="G141">
+        <v>0.156318013058507</v>
+      </c>
+      <c s="3" t="str" r="H141"/>
+      <c s="7" r="I141">
+        <v>0.171426285897128</v>
+      </c>
+      <c s="7" r="J141">
+        <v>0.178488659245469</v>
+      </c>
+    </row>
+    <row r="142" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A142">
+        <is>
+          <t xml:space="preserve">13279</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B142">
+        <is>
+          <t xml:space="preserve">Toombs, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C142">
+        <v>7</v>
+      </c>
+      <c s="7" r="D142">
+        <v>0.0523191467954523</v>
+      </c>
+      <c s="7" r="E142">
+        <v>0.0924703824441441</v>
+      </c>
+      <c s="7" r="F142">
+        <v>0.113716693855356</v>
+      </c>
+      <c s="7" r="G142">
+        <v>0.126757957068838</v>
+      </c>
+      <c s="3" t="str" r="H142"/>
+      <c s="7" r="I142">
+        <v>0.147262465817187</v>
+      </c>
+      <c s="7" r="J142">
+        <v>0.168023389130933</v>
+      </c>
+    </row>
+    <row r="143" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A143">
+        <is>
+          <t xml:space="preserve">13281</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B143">
+        <is>
+          <t xml:space="preserve">Towns, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C143">
+        <v>9</v>
+      </c>
+      <c s="7" r="D143">
+        <v>0.0497843982751862</v>
+      </c>
+      <c s="7" r="E143">
+        <v>0.0990269032627361</v>
+      </c>
+      <c s="7" r="F143">
+        <v>0.114273841678787</v>
+      </c>
+      <c s="7" r="G143">
+        <v>0.174477289113194</v>
+      </c>
+      <c s="3" t="str" r="H143"/>
+      <c s="7" r="I143">
+        <v>0.222236503856041</v>
+      </c>
+      <c s="7" r="J143">
+        <v>0.314802844214609</v>
+      </c>
+    </row>
+    <row r="144" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A144">
+        <is>
+          <t xml:space="preserve">13283</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B144">
+        <is>
+          <t xml:space="preserve">Treutlen, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C144">
+        <v>7</v>
+      </c>
+      <c s="7" r="D144">
+        <v>0.0673240394423665</v>
+      </c>
+      <c s="7" r="E144">
+        <v>0.0622817229336438</v>
+      </c>
+      <c s="7" r="F144">
+        <v>0.0634186173108329</v>
+      </c>
+      <c s="7" r="G144">
+        <v>0.0845759552656104</v>
+      </c>
+      <c s="3" t="str" r="H144"/>
+      <c s="7" r="I144">
+        <v>0.0911798396334479</v>
+      </c>
+      <c s="7" r="J144">
+        <v>0.141907925961082</v>
+      </c>
+    </row>
+    <row r="145" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A145">
+        <is>
+          <t xml:space="preserve">13285</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B145">
+        <is>
+          <t xml:space="preserve">Troup, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C145">
+        <v>4</v>
+      </c>
+      <c s="7" r="D145">
+        <v>0.0614380694410244</v>
+      </c>
+      <c s="7" r="E145">
+        <v>0.10899061193723</v>
+      </c>
+      <c s="7" r="F145">
+        <v>0.13628684609111</v>
+      </c>
+      <c s="7" r="G145">
+        <v>0.179655031916338</v>
+      </c>
+      <c s="3" t="str" r="H145"/>
+      <c s="7" r="I145">
+        <v>0.196507981088798</v>
+      </c>
+      <c s="7" r="J145">
+        <v>0.19702084104619</v>
+      </c>
+    </row>
+    <row r="146" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A146">
+        <is>
+          <t xml:space="preserve">13287</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B146">
+        <is>
+          <t xml:space="preserve">Turner, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C146">
+        <v>6</v>
+      </c>
+      <c s="7" r="D146">
+        <v>0.0360399478940512</v>
+      </c>
+      <c s="7" r="E146">
+        <v>0.0783783783783784</v>
+      </c>
+      <c s="7" r="F146">
+        <v>0.0715667311411992</v>
+      </c>
+      <c s="7" r="G146">
+        <v>0.104783599088838</v>
+      </c>
+      <c s="3" t="str" r="H146"/>
+      <c s="7" r="I146">
+        <v>0.120133286566117</v>
+      </c>
+      <c s="7" r="J146">
+        <v>0.109440672486259</v>
+      </c>
+    </row>
+    <row r="147" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A147">
+        <is>
+          <t xml:space="preserve">13289</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B147">
+        <is>
+          <t xml:space="preserve">Twiggs, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C147">
+        <v>3</v>
+      </c>
+      <c s="7" r="D147">
+        <v>0.0224980605120248</v>
+      </c>
+      <c s="7" r="E147">
+        <v>0.0508921330089213</v>
+      </c>
+      <c s="7" r="F147">
+        <v>0.0478149100257069</v>
+      </c>
+      <c s="7" r="G147">
+        <v>0.0543121456281707</v>
+      </c>
+      <c s="3" t="str" r="H147"/>
+      <c s="7" r="I147">
+        <v>0.108618463524855</v>
+      </c>
+      <c s="7" r="J147">
+        <v>0.111783960720131</v>
+      </c>
+    </row>
+    <row r="148" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A148">
+        <is>
+          <t xml:space="preserve">13291</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B148">
+        <is>
+          <t xml:space="preserve">Union, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C148">
+        <v>9</v>
+      </c>
+      <c s="7" r="D148">
+        <v>0.0431876606683805</v>
+      </c>
+      <c s="7" r="E148">
+        <v>0.0799446270981139</v>
+      </c>
+      <c s="7" r="F148">
+        <v>0.101027190332326</v>
+      </c>
+      <c s="7" r="G148">
+        <v>0.125451688923802</v>
+      </c>
+      <c s="3" t="str" r="H148"/>
+      <c s="7" r="I148">
+        <v>0.206169129821549</v>
+      </c>
+      <c s="7" r="J148">
+        <v>0.249240121580547</v>
+      </c>
+    </row>
+    <row r="149" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A149">
+        <is>
+          <t xml:space="preserve">13293</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B149">
+        <is>
+          <t xml:space="preserve">Upson, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C149">
+        <v>6</v>
+      </c>
+      <c s="7" r="D149">
+        <v>0.0461226938653067</v>
+      </c>
+      <c s="7" r="E149">
+        <v>0.0707064324529256</v>
+      </c>
+      <c s="7" r="F149">
+        <v>0.0904953614563277</v>
+      </c>
+      <c s="7" r="G149">
+        <v>0.114542974079127</v>
+      </c>
+      <c s="3" t="str" r="H149"/>
+      <c s="7" r="I149">
+        <v>0.110167153969217</v>
+      </c>
+      <c s="7" r="J149">
+        <v>0.145896656534954</v>
+      </c>
+    </row>
+    <row r="150" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A150">
+        <is>
+          <t xml:space="preserve">13295</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B150">
+        <is>
+          <t xml:space="preserve">Walker, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C150">
+        <v>2</v>
+      </c>
+      <c s="7" r="D150">
+        <v>0.0484243167231557</v>
+      </c>
+      <c s="7" r="E150">
+        <v>0.0601609477368594</v>
+      </c>
+      <c s="7" r="F150">
+        <v>0.0840511546794906</v>
+      </c>
+      <c s="7" r="G150">
+        <v>0.101672502877293</v>
+      </c>
+      <c s="3" t="str" r="H150"/>
+      <c s="7" r="I150">
+        <v>0.138621248294679</v>
+      </c>
+      <c s="7" r="J150">
+        <v>0.194693041150887</v>
+      </c>
+    </row>
+    <row r="151" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A151">
+        <is>
+          <t xml:space="preserve">13297</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B151">
+        <is>
+          <t xml:space="preserve">Walton, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C151">
+        <v>1</v>
+      </c>
+      <c s="7" r="D151">
+        <v>0.044913596348223</v>
+      </c>
+      <c s="7" r="E151">
+        <v>0.0734469740304313</v>
+      </c>
+      <c s="7" r="F151">
+        <v>0.0936658815612382</v>
+      </c>
+      <c s="7" r="G151">
+        <v>0.130402055701197</v>
+      </c>
+      <c s="3" t="str" r="H151"/>
+      <c s="7" r="I151">
+        <v>0.189478108325415</v>
+      </c>
+      <c s="7" r="J151">
+        <v>0.231601259312366</v>
+      </c>
+    </row>
+    <row r="152" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A152">
+        <is>
+          <t xml:space="preserve">13299</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B152">
+        <is>
+          <t xml:space="preserve">Ware, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C152">
+        <v>5</v>
+      </c>
+      <c s="7" r="D152">
+        <v>0.06930638391871</v>
+      </c>
+      <c s="7" r="E152">
+        <v>0.0999906419614449</v>
+      </c>
+      <c s="7" r="F152">
+        <v>0.103754809605944</v>
+      </c>
+      <c s="7" r="G152">
+        <v>0.113729683490163</v>
+      </c>
+      <c s="3" t="str" r="H152"/>
+      <c s="7" r="I152">
+        <v>0.140306334803962</v>
+      </c>
+      <c s="7" r="J152">
+        <v>0.143078428175444</v>
+      </c>
+    </row>
+    <row r="153" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A153">
+        <is>
+          <t xml:space="preserve">13301</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B153">
+        <is>
+          <t xml:space="preserve">Warren, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C153">
+        <v>8</v>
+      </c>
+      <c s="7" r="D153">
+        <v>0.0339791356184799</v>
+      </c>
+      <c s="7" r="E153">
+        <v>0.075491759702286</v>
+      </c>
+      <c s="7" r="F153">
+        <v>0.0419303797468354</v>
+      </c>
+      <c s="7" r="G153">
+        <v>0.0795370598374785</v>
+      </c>
+      <c s="3" t="str" r="H153"/>
+      <c s="7" r="I153">
+        <v>0.0653770812928502</v>
+      </c>
+      <c s="7" r="J153">
+        <v>0.0924127067471777</v>
+      </c>
+    </row>
+    <row r="154" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A154">
+        <is>
+          <t xml:space="preserve">13303</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B154">
+        <is>
+          <t xml:space="preserve">Washington, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C154">
+        <v>7</v>
+      </c>
+      <c s="7" r="D154">
+        <v>0.0478309232480534</v>
+      </c>
+      <c s="7" r="E154">
+        <v>0.0872939823687237</v>
+      </c>
+      <c s="7" r="F154">
+        <v>0.098285129255183</v>
+      </c>
+      <c s="7" r="G154">
+        <v>0.105239982386614</v>
+      </c>
+      <c s="3" t="str" r="H154"/>
+      <c s="7" r="I154">
+        <v>0.108701794038706</v>
+      </c>
+      <c s="7" r="J154">
+        <v>0.162307746828266</v>
+      </c>
+    </row>
+    <row r="155" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A155">
+        <is>
+          <t xml:space="preserve">13305</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B155">
+        <is>
+          <t xml:space="preserve">Wayne, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C155">
+        <v>6</v>
+      </c>
+      <c s="7" r="D155">
+        <v>0.0555494202098288</v>
+      </c>
+      <c s="7" r="E155">
+        <v>0.0715563506261181</v>
+      </c>
+      <c s="7" r="F155">
+        <v>0.0958904109589041</v>
+      </c>
+      <c s="7" r="G155">
+        <v>0.115851919456962</v>
+      </c>
+      <c s="3" t="str" r="H155"/>
+      <c s="7" r="I155">
+        <v>0.11333465425005</v>
+      </c>
+      <c s="7" r="J155">
+        <v>0.135445272655944</v>
+      </c>
+    </row>
+    <row r="156" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A156">
+        <is>
+          <t xml:space="preserve">13307</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B156">
+        <is>
+          <t xml:space="preserve">Webster, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C156">
+        <v>8</v>
+      </c>
+      <c s="7" r="D156">
+        <v>0.0327022375215146</v>
+      </c>
+      <c s="7" r="E156">
+        <v>0.0673813169984686</v>
+      </c>
+      <c s="7" r="F156">
+        <v>0.0550847457627119</v>
+      </c>
+      <c s="7" r="G156">
+        <v>0.0906801007556675</v>
+      </c>
+      <c s="3" t="str" r="H156"/>
+      <c s="7" r="I156">
+        <v>0.118988596926128</v>
+      </c>
+      <c s="7" r="J156">
+        <v>0.135502958579882</v>
+      </c>
+    </row>
+    <row r="157" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A157">
+        <is>
+          <t xml:space="preserve">13309</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B157">
+        <is>
+          <t xml:space="preserve">Wheeler, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C157">
+        <v>9</v>
+      </c>
+      <c s="7" r="D157">
+        <v>0.0480295566502463</v>
+      </c>
+      <c s="7" r="E157">
+        <v>0.0752615592305096</v>
+      </c>
+      <c s="7" r="F157">
+        <v>0.0858552631578947</v>
+      </c>
+      <c s="7" r="G157">
+        <v>0.0714285714285714</v>
+      </c>
+      <c s="3" t="str" r="H157"/>
+      <c s="7" r="I157">
+        <v>0.0842381786339755</v>
+      </c>
+      <c s="7" r="J157">
+        <v>0.0914298808432631</v>
+      </c>
+    </row>
+    <row r="158" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A158">
+        <is>
+          <t xml:space="preserve">13311</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B158">
+        <is>
+          <t xml:space="preserve">White, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C158">
+        <v>6</v>
+      </c>
+      <c s="7" r="D158">
+        <v>0.0416168380770151</v>
+      </c>
+      <c s="7" r="E158">
+        <v>0.0956221198156682</v>
+      </c>
+      <c s="7" r="F158">
+        <v>0.135739822396494</v>
+      </c>
+      <c s="7" r="G158">
+        <v>0.154457062272694</v>
+      </c>
+      <c s="3" t="str" r="H158"/>
+      <c s="7" r="I158">
+        <v>0.199567533357945</v>
+      </c>
+      <c s="7" r="J158">
+        <v>0.218132035290538</v>
+      </c>
+    </row>
+    <row r="159" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A159">
+        <is>
+          <t xml:space="preserve">13313</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B159">
+        <is>
+          <t xml:space="preserve">Whitfield, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C159">
+        <v>3</v>
+      </c>
+      <c s="7" r="D159">
+        <v>0.0545435363623576</v>
+      </c>
+      <c s="7" r="E159">
+        <v>0.0971388582348666</v>
+      </c>
+      <c s="7" r="F159">
+        <v>0.120103058730264</v>
+      </c>
+      <c s="7" r="G159">
+        <v>0.128362183754993</v>
+      </c>
+      <c s="3" t="str" r="H159"/>
+      <c s="7" r="I159">
+        <v>0.147484406167875</v>
+      </c>
+      <c s="7" r="J159">
+        <v>0.175741757417574</v>
+      </c>
+    </row>
+    <row r="160" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A160">
+        <is>
+          <t xml:space="preserve">13315</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B160">
+        <is>
+          <t xml:space="preserve">Wilcox, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C160">
+        <v>8</v>
+      </c>
+      <c s="7" r="D160">
+        <v>0.0312417262377548</v>
+      </c>
+      <c s="7" r="E160">
+        <v>0.0607722685388328</v>
+      </c>
+      <c s="7" r="F160">
+        <v>0.0755616065350579</v>
+      </c>
+      <c s="7" r="G160">
+        <v>0.0696059711855581</v>
+      </c>
+      <c s="3" t="str" r="H160"/>
+      <c s="7" r="I160">
+        <v>0.0818919332619011</v>
+      </c>
+      <c s="7" r="J160">
+        <v>0.126248439450687</v>
+      </c>
+    </row>
+    <row r="161" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A161">
+        <is>
+          <t xml:space="preserve">13317</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B161">
+        <is>
+          <t xml:space="preserve">Wilkes, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C161">
+        <v>6</v>
+      </c>
+      <c s="7" r="D161">
+        <v>0.0668983492615117</v>
+      </c>
+      <c s="7" r="E161">
+        <v>0.100895160066758</v>
+      </c>
+      <c s="7" r="F161">
+        <v>0.103882932483338</v>
+      </c>
+      <c s="7" r="G161">
+        <v>0.119889883000688</v>
+      </c>
+      <c s="3" t="str" r="H161"/>
+      <c s="7" r="I161">
+        <v>0.137562465297057</v>
+      </c>
+      <c s="7" r="J161">
+        <v>0.120981630309989</v>
+      </c>
+    </row>
+    <row r="162" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A162">
+        <is>
+          <t xml:space="preserve">13319</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B162">
+        <is>
+          <t xml:space="preserve">Wilkinson, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C162">
+        <v>8</v>
+      </c>
+      <c s="7" r="D162">
+        <v>0.0347789650115232</v>
+      </c>
+      <c s="7" r="E162">
+        <v>0.0728476821192053</v>
+      </c>
+      <c s="7" r="F162">
+        <v>0.0880964012375835</v>
+      </c>
+      <c s="7" r="G162">
+        <v>0.0957136272852973</v>
+      </c>
+      <c s="3" t="str" r="H162"/>
+      <c s="7" r="I162">
+        <v>0.115137254901961</v>
+      </c>
+      <c s="7" r="J162">
+        <v>0.100289296046287</v>
+      </c>
+    </row>
+    <row r="163" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A163">
+        <is>
+          <t xml:space="preserve">13321</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B163">
+        <is>
+          <t xml:space="preserve">Worth, GA        </t>
+        </is>
+      </c>
+      <c s="8" r="C163">
+        <v>3</v>
+      </c>
+      <c s="7" r="D163">
+        <v>0.0340236686390533</v>
+      </c>
+      <c s="7" r="E163">
+        <v>0.0779963862678177</v>
+      </c>
+      <c s="7" r="F163">
+        <v>0.0630227253527076</v>
+      </c>
+      <c s="7" r="G163">
+        <v>0.0858430502897203</v>
+      </c>
+      <c s="3" t="str" r="H163"/>
+      <c s="7" r="I163">
+        <v>0.0886075949367089</v>
+      </c>
+      <c s="7" r="J163">
+        <v>0.108375392170236</v>
+      </c>
+    </row>
+    <row r="164" ht="0.05" customHeight="1"/>
+    <row r="165" ht="5.95" customHeight="1"/>
+    <row r="166" ht="222.75" customHeight="1">
+      <c s="9" t="inlineStr" r="A166">
         <is>
           <r>
             <rPr>
@@ -1116,7 +6013,6 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="14.75" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:J2"/>
@@ -1137,10 +6033,154 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A166:G166"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId7"/>
+    <hyperlink ref="A166" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
